--- a/excels/reporte_personas_cargos_chile.xlsx
+++ b/excels/reporte_personas_cargos_chile.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3035" uniqueCount="1329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3038" uniqueCount="1331">
   <si>
     <t>nombre</t>
   </si>
@@ -4010,6 +4010,12 @@
   </si>
   <si>
     <t>preguntar a deborah 10</t>
+  </si>
+  <si>
+    <t>consultar a Deborah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sin nadie a cargo </t>
   </si>
 </sst>
 </file>
@@ -4054,7 +4060,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -4077,17 +4083,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -4100,12 +4129,28 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda [0]" xfId="1" builtinId="7"/>
@@ -20856,1804 +20901,1823 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:F166"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F167" sqref="F167"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="55.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" style="10" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1306</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>1307</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>1308</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>1309</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="8" t="s">
         <v>1310</v>
       </c>
     </row>
-    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>863</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>1900000</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>1900000</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="3">
         <v>7</v>
       </c>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E2" s="9"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>229</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>2305000</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>2305000</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="3">
         <v>7</v>
       </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E3" s="9"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>811</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>1005000</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>1005000</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="3">
         <v>5</v>
       </c>
-      <c r="E4" s="2"/>
+      <c r="E4" s="9"/>
       <c r="F4" t="s">
         <v>1318</v>
       </c>
     </row>
-    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>195</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>1239000</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>1958000</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="3">
         <v>6</v>
       </c>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E5" s="9"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>963</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>780000</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>780000</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="3">
         <v>4</v>
       </c>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E6" s="9"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>973</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>1766000</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>1766000</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="3">
         <v>7</v>
       </c>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E7" s="9"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>913</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>982000</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>2600000</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="3">
         <v>7</v>
       </c>
-      <c r="E8" s="2"/>
+      <c r="E8" s="9"/>
       <c r="F8" t="s">
         <v>1325</v>
       </c>
     </row>
-    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>637</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <v>922000</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>1500000</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>442</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <v>1653000</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <v>2200000</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="3">
         <v>6</v>
       </c>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E10" s="9"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>821</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <v>900000</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>900000</v>
       </c>
-      <c r="D11"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D11" s="3">
+        <v>5</v>
+      </c>
+      <c r="E11" s="9"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>293</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="2">
         <v>655000</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <v>783000</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="3">
         <v>4</v>
       </c>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E12" s="9"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>508</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="2">
         <v>1210000</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="2">
         <v>1417000</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="3">
         <v>5</v>
       </c>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E13" s="9"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>1151</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="2">
         <v>3270000</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="2">
         <v>3270000</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="3">
         <v>7</v>
       </c>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E14" s="9"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>896</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="2">
         <v>2400000</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="2">
         <v>2400000</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="3">
         <v>7</v>
       </c>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E15" s="9"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>856</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="2">
         <v>798000</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="2">
         <v>798000</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="3">
         <v>4</v>
       </c>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E16" s="9"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>413</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="2">
         <v>880000</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="2">
         <v>2030000</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="3">
         <v>5</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="9" t="s">
         <v>1314</v>
       </c>
       <c r="F17" t="s">
         <v>1315</v>
       </c>
     </row>
-    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>918</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="2">
         <v>849000</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="2">
         <v>1500000</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="3">
         <v>6</v>
       </c>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E18" s="9"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>181</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="2">
         <v>1600000</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="2">
         <v>2498431</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="3">
         <v>6</v>
       </c>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E19" s="9"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>970</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="2">
         <v>800000</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="2">
         <v>800000</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="3">
         <v>5</v>
       </c>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E20" s="9"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>183</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="2">
         <v>2100000</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="2">
         <v>2100000</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="3">
         <v>7</v>
       </c>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E21" s="9"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>926</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="2">
         <v>1865000</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="2">
         <v>1865000</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="3">
         <v>7</v>
       </c>
-      <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E22" s="9"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>931</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="2">
         <v>742278</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="2">
         <v>742278</v>
       </c>
-      <c r="D23"/>
-      <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D23" s="3">
+        <v>5</v>
+      </c>
+      <c r="E23" s="9"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>214</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="2">
         <v>1200000</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="2">
         <v>1200000</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="3">
         <v>5</v>
       </c>
-      <c r="E24" s="2"/>
+      <c r="E24" s="9"/>
       <c r="F24" t="s">
         <v>1320</v>
       </c>
     </row>
-    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>72</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="2">
         <v>550000</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="2">
         <v>680000</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="3">
         <v>1</v>
       </c>
-      <c r="E25" s="2"/>
+      <c r="E25" s="9"/>
       <c r="F25" t="s">
         <v>1311</v>
       </c>
     </row>
-    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>257</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="2">
         <v>1346000</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="2">
         <v>1500000</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="3">
         <v>6</v>
       </c>
-      <c r="E26" s="2"/>
-    </row>
-    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E26" s="9"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>766</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="2">
         <v>950000</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="2">
         <v>950000</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="3">
         <v>4</v>
       </c>
-      <c r="E27" s="2"/>
-    </row>
-    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E27" s="9"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>282</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="2">
         <v>1100000</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="2">
         <v>1200000</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="3">
         <v>5</v>
       </c>
-      <c r="E28" s="2"/>
-    </row>
-    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E28" s="9"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>272</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29" s="2">
         <v>1053000</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="2">
         <v>1260000</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="3">
         <v>5</v>
       </c>
-      <c r="E29" s="2"/>
-    </row>
-    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E29" s="9"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>94</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30" s="2">
         <v>630000</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="2">
         <v>933000</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="3">
         <v>4</v>
       </c>
-      <c r="E30" s="2"/>
-    </row>
-    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E30" s="9"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>1004</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31" s="2">
         <v>825000</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="2">
         <v>825000</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="3">
         <v>4</v>
       </c>
-      <c r="E31" s="2"/>
-    </row>
-    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E31" s="9"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>712</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32" s="2">
         <v>1188000</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="2">
         <v>1188000</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="3">
         <v>5</v>
       </c>
-      <c r="E32" s="2"/>
-    </row>
-    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E32" s="9"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>1176</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33" s="2">
         <v>850000</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="2">
         <v>860000</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="3">
         <v>5</v>
       </c>
-      <c r="E33" s="2"/>
+      <c r="E33" s="9"/>
       <c r="F33" t="s">
         <v>1319</v>
       </c>
     </row>
-    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>1039</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34" s="2">
         <v>849000</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="2">
         <v>849000</v>
       </c>
-      <c r="D34"/>
-      <c r="E34" s="2"/>
-    </row>
-    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D34" s="3">
+        <v>6</v>
+      </c>
+      <c r="E34" s="9"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>55</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B35" s="2">
         <v>567000</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35" s="2">
         <v>660000</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="3">
         <v>1</v>
       </c>
       <c r="F35" t="s">
         <v>1311</v>
       </c>
     </row>
-    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>695</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B36" s="2">
         <v>1250000</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C36" s="2">
         <v>1250000</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="3">
         <v>5</v>
       </c>
-      <c r="E36" s="2"/>
-    </row>
-    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E36" s="9"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>842</v>
       </c>
-      <c r="B37" s="3">
+      <c r="B37" s="2">
         <v>1995000</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C37" s="2">
         <v>1995000</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="3">
         <v>7</v>
       </c>
-      <c r="E37" s="2"/>
-    </row>
-    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E37" s="9"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>219</v>
       </c>
-      <c r="B38" s="3">
+      <c r="B38" s="2">
         <v>550000</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C38" s="2">
         <v>820000</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="3">
         <v>1</v>
       </c>
-      <c r="E38" s="4" t="s">
+      <c r="E38" s="10" t="s">
         <v>1313</v>
       </c>
     </row>
-    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>779</v>
       </c>
-      <c r="B39" s="3">
+      <c r="B39" s="2">
         <v>2897000</v>
       </c>
-      <c r="C39" s="3">
+      <c r="C39" s="2">
         <v>2897000</v>
       </c>
-      <c r="D39"/>
-      <c r="E39" s="2"/>
-    </row>
-    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D39" s="3">
+        <v>7</v>
+      </c>
+      <c r="E39" s="9"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>298</v>
       </c>
-      <c r="B40" s="3">
+      <c r="B40" s="2">
         <v>1000000</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C40" s="2">
         <v>1220000</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="3">
         <v>4</v>
       </c>
-      <c r="E40" s="2"/>
-    </row>
-    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E40" s="9"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>308</v>
       </c>
-      <c r="B41" s="3">
+      <c r="B41" s="2">
         <v>1230000</v>
       </c>
-      <c r="C41" s="3">
+      <c r="C41" s="2">
         <v>1230000</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="3">
         <v>5</v>
       </c>
-      <c r="E41" s="2"/>
-    </row>
-    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E41" s="9"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>116</v>
       </c>
-      <c r="B42" s="3">
+      <c r="B42" s="2">
         <v>2900000</v>
       </c>
-      <c r="C42" s="3">
+      <c r="C42" s="2">
         <v>2900000</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="3">
         <v>7</v>
       </c>
-      <c r="E42" s="2"/>
-    </row>
-    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E42" s="9"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>684</v>
       </c>
-      <c r="B43" s="3">
+      <c r="B43" s="2">
         <v>2100000</v>
       </c>
-      <c r="C43" s="3">
+      <c r="C43" s="2">
         <v>2914000</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="3">
         <v>7</v>
       </c>
-      <c r="E43" s="2"/>
-    </row>
-    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E43" s="9"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>520</v>
       </c>
-      <c r="B44" s="3">
+      <c r="B44" s="2">
         <v>3500000</v>
       </c>
-      <c r="C44" s="3">
+      <c r="C44" s="2">
         <v>3500000</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="3">
         <v>9</v>
       </c>
-      <c r="E44" s="2"/>
-    </row>
-    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E44" s="9"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>1131</v>
       </c>
-      <c r="B45" s="3">
+      <c r="B45" s="2">
         <v>3150000</v>
       </c>
-      <c r="C45" s="3">
+      <c r="C45" s="2">
         <v>3150000</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="3">
         <v>8</v>
       </c>
-      <c r="E45" s="2"/>
-    </row>
-    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E45" s="9"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>433</v>
       </c>
-      <c r="B46" s="3">
+      <c r="B46" s="2">
         <v>1180000</v>
       </c>
-      <c r="C46" s="3">
+      <c r="C46" s="2">
         <v>3125000</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="3">
         <v>8</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="E46" s="9" t="s">
         <v>1321</v>
       </c>
       <c r="F46" t="s">
         <v>1315</v>
       </c>
     </row>
-    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>319</v>
       </c>
-      <c r="B47" s="3">
+      <c r="B47" s="2">
         <v>698000</v>
       </c>
-      <c r="C47" s="3">
+      <c r="C47" s="2">
         <v>698000</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="3">
         <v>5</v>
       </c>
-      <c r="E47" s="2"/>
-    </row>
-    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E47" s="9"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>505</v>
       </c>
-      <c r="B48" s="3">
+      <c r="B48" s="2">
         <v>5800000</v>
       </c>
-      <c r="C48" s="3">
+      <c r="C48" s="2">
         <v>5800000</v>
       </c>
-      <c r="D48"/>
-      <c r="E48" s="2"/>
-    </row>
-    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D48" s="3">
+        <v>12</v>
+      </c>
+      <c r="E48" s="9"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>787</v>
       </c>
-      <c r="B49" s="3">
+      <c r="B49" s="2">
         <v>892000</v>
       </c>
-      <c r="C49" s="3">
+      <c r="C49" s="2">
         <v>892000</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="3">
         <v>5</v>
       </c>
-      <c r="E49" s="2"/>
-    </row>
-    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E49" s="9"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>168</v>
       </c>
-      <c r="B50" s="3">
+      <c r="B50" s="2">
         <v>770000</v>
       </c>
-      <c r="C50" s="3">
+      <c r="C50" s="2">
         <v>2510000</v>
       </c>
-      <c r="D50">
-        <v>4</v>
-      </c>
-      <c r="E50" s="2" t="s">
+      <c r="D50" s="3">
+        <v>5</v>
+      </c>
+      <c r="E50" s="9" t="s">
         <v>1316</v>
       </c>
       <c r="F50" t="s">
         <v>1317</v>
       </c>
     </row>
-    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>675</v>
       </c>
-      <c r="B51" s="3">
+      <c r="B51" s="2">
         <v>1000000</v>
       </c>
-      <c r="C51" s="3">
+      <c r="C51" s="2">
         <v>1000000</v>
       </c>
-      <c r="D51">
-        <v>4</v>
-      </c>
-      <c r="E51" s="2"/>
-    </row>
-    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D51" s="3">
+        <v>5</v>
+      </c>
+      <c r="E51" s="9"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>311</v>
       </c>
-      <c r="B52" s="3">
+      <c r="B52" s="2">
         <v>2450000</v>
       </c>
-      <c r="C52" s="3">
+      <c r="C52" s="2">
         <v>3000000</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="3">
         <v>7</v>
       </c>
-      <c r="E52" s="2"/>
-    </row>
-    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E52" s="9"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>1243</v>
       </c>
-      <c r="B53" s="3">
+      <c r="B53" s="2">
         <v>9800000</v>
       </c>
-      <c r="C53" s="3">
+      <c r="C53" s="2">
         <v>9800000</v>
       </c>
-      <c r="D53"/>
-      <c r="E53" s="2"/>
-    </row>
-    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D53" s="3">
+        <v>14</v>
+      </c>
+      <c r="E53" s="9"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>471</v>
       </c>
-      <c r="B54" s="3">
+      <c r="B54" s="2">
         <v>853000</v>
       </c>
-      <c r="C54" s="3">
+      <c r="C54" s="2">
         <v>930000</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="3">
         <v>5</v>
       </c>
-      <c r="E54" s="2"/>
-    </row>
-    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E54" s="9"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>99</v>
       </c>
-      <c r="B55" s="3">
+      <c r="B55" s="2">
         <v>950000</v>
       </c>
-      <c r="C55" s="3">
+      <c r="C55" s="2">
         <v>1614000</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="3">
         <v>5</v>
       </c>
-      <c r="E55" s="2"/>
-    </row>
-    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E55" s="9"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>428</v>
       </c>
-      <c r="B56" s="3">
+      <c r="B56" s="2">
         <v>1300000</v>
       </c>
-      <c r="C56" s="3">
+      <c r="C56" s="2">
         <v>1300000</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="3">
         <v>5</v>
       </c>
-      <c r="E56" s="2"/>
-    </row>
-    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E56" s="9"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>742</v>
       </c>
-      <c r="B57" s="3">
+      <c r="B57" s="2">
         <v>1150000</v>
       </c>
-      <c r="C57" s="3">
+      <c r="C57" s="2">
         <v>1150000</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="3">
         <v>5</v>
       </c>
-      <c r="E57" s="2"/>
-    </row>
-    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E57" s="9"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>881</v>
       </c>
-      <c r="B58" s="3">
+      <c r="B58" s="2">
         <v>1150000</v>
       </c>
-      <c r="C58" s="3">
+      <c r="C58" s="2">
         <v>1150000</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="3">
         <v>5</v>
       </c>
-      <c r="E58" s="2"/>
-    </row>
-    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E58" s="9"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>222</v>
       </c>
-      <c r="B59" s="3">
+      <c r="B59" s="2">
         <v>1000000</v>
       </c>
-      <c r="C59" s="3">
+      <c r="C59" s="2">
         <v>1000000</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="3">
         <v>5</v>
       </c>
-      <c r="E59" s="2"/>
-    </row>
-    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E59" s="9"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>584</v>
       </c>
-      <c r="B60" s="3">
+      <c r="B60" s="2">
         <v>980000</v>
       </c>
-      <c r="C60" s="3">
+      <c r="C60" s="2">
         <v>980000</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="3">
         <v>5</v>
       </c>
-      <c r="E60" s="2"/>
-    </row>
-    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E60" s="9"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>461</v>
       </c>
-      <c r="B61" s="3">
+      <c r="B61" s="2">
         <v>1050000</v>
       </c>
-      <c r="C61" s="3">
+      <c r="C61" s="2">
         <v>1050000</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="3">
         <v>5</v>
       </c>
-      <c r="E61" s="2"/>
-    </row>
-    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E61" s="9"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>279</v>
       </c>
-      <c r="B62" s="3">
+      <c r="B62" s="2">
         <v>1680000</v>
       </c>
-      <c r="C62" s="3">
+      <c r="C62" s="2">
         <v>3000000</v>
       </c>
-      <c r="D62">
+      <c r="D62" s="3">
         <v>6</v>
       </c>
-      <c r="E62" s="7" t="s">
+      <c r="E62" s="11" t="s">
         <v>1321</v>
       </c>
     </row>
-    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>101</v>
       </c>
-      <c r="B63" s="3">
+      <c r="B63" s="2">
         <v>1400000</v>
       </c>
-      <c r="C63" s="3">
+      <c r="C63" s="2">
         <v>1400000</v>
       </c>
-      <c r="D63">
+      <c r="D63" s="3">
         <v>6</v>
       </c>
-      <c r="E63" s="2"/>
+      <c r="E63" s="9"/>
       <c r="F63" t="s">
         <v>1324</v>
       </c>
     </row>
-    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>420</v>
       </c>
-      <c r="B64" s="3">
+      <c r="B64" s="2">
         <v>1584000</v>
       </c>
-      <c r="C64" s="3">
+      <c r="C64" s="2">
         <v>1584000</v>
       </c>
-      <c r="D64">
+      <c r="D64" s="3">
         <v>6</v>
       </c>
-      <c r="E64" s="2"/>
-    </row>
-    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E64" s="9"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>327</v>
       </c>
-      <c r="B65" s="3">
+      <c r="B65" s="2">
         <v>2800000</v>
       </c>
-      <c r="C65" s="3">
+      <c r="C65" s="2">
         <v>2800000</v>
       </c>
-      <c r="D65">
+      <c r="D65" s="3">
         <v>7</v>
       </c>
-      <c r="E65" s="2"/>
+      <c r="E65" s="9"/>
       <c r="F65" t="s">
         <v>1315</v>
       </c>
     </row>
-    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>121</v>
       </c>
-      <c r="B66" s="3">
+      <c r="B66" s="2">
         <v>1600000</v>
       </c>
-      <c r="C66" s="3">
+      <c r="C66" s="2">
         <v>2650000</v>
       </c>
-      <c r="D66">
+      <c r="D66" s="3">
         <v>6</v>
       </c>
-      <c r="E66" s="2"/>
-    </row>
-    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E66" s="9"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>999</v>
       </c>
-      <c r="B67" s="3">
+      <c r="B67" s="2">
         <v>1000000</v>
       </c>
-      <c r="C67" s="3">
+      <c r="C67" s="2">
         <v>1000000</v>
       </c>
-      <c r="D67">
+      <c r="D67" s="3">
         <v>6</v>
       </c>
-      <c r="E67" s="2"/>
-    </row>
-    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E67" s="9"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>607</v>
       </c>
-      <c r="B68" s="3">
+      <c r="B68" s="2">
         <v>964000</v>
       </c>
-      <c r="C68" s="3">
+      <c r="C68" s="2">
         <v>2255000</v>
       </c>
-      <c r="D68">
+      <c r="D68" s="3">
         <v>6</v>
       </c>
-      <c r="E68" s="2"/>
-    </row>
-    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E68" s="9"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>337</v>
       </c>
-      <c r="B69" s="3">
+      <c r="B69" s="2">
         <v>1424000</v>
       </c>
-      <c r="C69" s="3">
+      <c r="C69" s="2">
         <v>2237000</v>
       </c>
-      <c r="D69">
+      <c r="D69" s="3">
         <v>6</v>
       </c>
-      <c r="E69" s="2"/>
-    </row>
-    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E69" s="9"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>782</v>
       </c>
-      <c r="B70" s="3">
+      <c r="B70" s="2">
         <v>2000000</v>
       </c>
-      <c r="C70" s="3">
+      <c r="C70" s="2">
         <v>2000000</v>
       </c>
-      <c r="D70">
+      <c r="D70" s="3">
         <v>6</v>
       </c>
-      <c r="E70" s="2"/>
-    </row>
-    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E70" s="9"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>404</v>
       </c>
-      <c r="B71" s="3">
+      <c r="B71" s="2">
         <v>1155000</v>
       </c>
-      <c r="C71" s="3">
+      <c r="C71" s="2">
         <v>2200000</v>
       </c>
-      <c r="D71">
+      <c r="D71" s="3">
         <v>6</v>
       </c>
-      <c r="E71" s="2"/>
+      <c r="E71" s="9"/>
       <c r="F71" t="s">
         <v>1322</v>
       </c>
     </row>
-    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>1146</v>
       </c>
-      <c r="B72" s="3">
+      <c r="B72" s="2">
         <v>2925000</v>
       </c>
-      <c r="C72" s="3">
+      <c r="C72" s="2">
         <v>2925000</v>
       </c>
-      <c r="D72">
+      <c r="D72" s="3">
         <v>7</v>
       </c>
-      <c r="E72" s="2"/>
+      <c r="E72" s="9"/>
       <c r="F72" t="s">
         <v>1315</v>
       </c>
     </row>
-    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>573</v>
       </c>
-      <c r="B73" s="3">
+      <c r="B73" s="2">
         <v>2202500</v>
       </c>
-      <c r="C73" s="3">
+      <c r="C73" s="2">
         <v>2202500</v>
       </c>
-      <c r="D73">
+      <c r="D73" s="3">
         <v>7</v>
       </c>
-      <c r="E73" s="2"/>
+      <c r="E73" s="9"/>
       <c r="F73" t="s">
         <v>1315</v>
       </c>
     </row>
-    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>468</v>
       </c>
-      <c r="B74" s="3">
+      <c r="B74" s="2">
         <v>1400000</v>
       </c>
-      <c r="C74" s="3">
+      <c r="C74" s="2">
         <v>1575000</v>
       </c>
-      <c r="D74">
+      <c r="D74" s="3">
         <v>6</v>
       </c>
-      <c r="E74" s="2"/>
-    </row>
-    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E74" s="9"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>653</v>
       </c>
-      <c r="B75" s="3">
+      <c r="B75" s="2">
         <v>945000</v>
       </c>
-      <c r="C75" s="3">
+      <c r="C75" s="2">
         <v>1800000</v>
       </c>
-      <c r="D75">
+      <c r="D75" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>869</v>
       </c>
-      <c r="B76" s="3">
+      <c r="B76" s="2">
         <v>1500000</v>
       </c>
-      <c r="C76" s="3">
+      <c r="C76" s="2">
         <v>1500000</v>
       </c>
-      <c r="D76">
+      <c r="D76" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>849</v>
       </c>
-      <c r="B77" s="3">
+      <c r="B77" s="2">
         <v>1242000</v>
       </c>
-      <c r="C77" s="3">
+      <c r="C77" s="2">
         <v>1244000</v>
       </c>
-      <c r="D77">
+      <c r="D77" s="3">
         <v>6</v>
       </c>
-      <c r="E77" s="2"/>
-    </row>
-    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E77" s="9"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>263</v>
       </c>
-      <c r="B78" s="3">
+      <c r="B78" s="2">
         <v>1600000</v>
       </c>
-      <c r="C78" s="3">
+      <c r="C78" s="2">
         <v>3300000</v>
       </c>
-      <c r="D78">
+      <c r="D78" s="3">
         <v>7</v>
       </c>
-      <c r="E78" s="2" t="s">
+      <c r="E78" s="9" t="s">
         <v>1323</v>
       </c>
     </row>
-    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>21</v>
       </c>
-      <c r="B79" s="3">
+      <c r="B79" s="2">
         <v>11000000</v>
       </c>
-      <c r="C79" s="3">
+      <c r="C79" s="2">
         <v>11000000</v>
       </c>
-      <c r="D79">
+      <c r="D79" s="3">
         <v>14</v>
       </c>
-      <c r="E79" s="2"/>
-    </row>
-    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E79" s="9"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>16</v>
       </c>
-      <c r="B80" s="3">
+      <c r="B80" s="2">
         <v>10400000</v>
       </c>
-      <c r="C80" s="3">
+      <c r="C80" s="2">
         <v>10400000</v>
       </c>
-      <c r="D80">
+      <c r="D80" s="3">
         <v>14</v>
       </c>
-      <c r="E80" s="2"/>
-    </row>
-    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E80" s="9"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>1120</v>
       </c>
-      <c r="B81" s="3">
+      <c r="B81" s="2">
         <v>9300000</v>
       </c>
-      <c r="C81" s="3">
+      <c r="C81" s="2">
         <v>9300000</v>
       </c>
-      <c r="D81">
+      <c r="D81" s="3">
         <v>14</v>
       </c>
-      <c r="E81" s="2"/>
-    </row>
-    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E81" s="9"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>26</v>
       </c>
-      <c r="B82" s="3">
+      <c r="B82" s="2">
         <v>8400000</v>
       </c>
-      <c r="C82" s="3">
+      <c r="C82" s="2">
         <v>8400000</v>
       </c>
-      <c r="D82">
+      <c r="D82" s="3">
         <v>14</v>
       </c>
-      <c r="E82" s="2"/>
-    </row>
-    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E82" s="9"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>13</v>
       </c>
-      <c r="B83" s="3">
+      <c r="B83" s="2">
         <v>9100000</v>
       </c>
-      <c r="C83" s="3">
+      <c r="C83" s="2">
         <v>9100000</v>
       </c>
-      <c r="D83">
+      <c r="D83" s="3">
         <v>14</v>
       </c>
-      <c r="E83" s="2"/>
-    </row>
-    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E83" s="9"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>594</v>
       </c>
-      <c r="B84" s="3">
+      <c r="B84" s="2">
         <v>9800000</v>
       </c>
-      <c r="C84" s="3">
+      <c r="C84" s="2">
         <v>9800000</v>
       </c>
-      <c r="D84">
+      <c r="D84" s="3">
         <v>14</v>
       </c>
-      <c r="E84" s="2"/>
-    </row>
-    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E84" s="9"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>50</v>
       </c>
-      <c r="B85" s="3">
+      <c r="B85" s="2">
         <v>10000000</v>
       </c>
-      <c r="C85" s="3">
+      <c r="C85" s="2">
         <v>10000000</v>
       </c>
-      <c r="D85">
+      <c r="D85" s="3">
         <v>14</v>
       </c>
-      <c r="E85" s="2"/>
-    </row>
-    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E85" s="9"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>113</v>
       </c>
-      <c r="B86" s="3">
+      <c r="B86" s="2">
         <v>8500000</v>
       </c>
-      <c r="C86" s="3">
+      <c r="C86" s="2">
         <v>8500000</v>
       </c>
-      <c r="D86">
+      <c r="D86" s="3">
         <v>14</v>
       </c>
-      <c r="E86" s="2"/>
-    </row>
-    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E86" s="9"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>136</v>
       </c>
-      <c r="B87" s="3">
+      <c r="B87" s="2">
         <v>10200000</v>
       </c>
-      <c r="C87" s="3">
+      <c r="C87" s="2">
         <v>10200000</v>
       </c>
-      <c r="D87">
+      <c r="D87" s="3">
         <v>14</v>
       </c>
-      <c r="E87" s="2"/>
-    </row>
-    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E87" s="9"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>79</v>
       </c>
-      <c r="B88" s="3">
+      <c r="B88" s="2">
         <v>8600000</v>
       </c>
-      <c r="C88" s="3">
+      <c r="C88" s="2">
         <v>8600000</v>
       </c>
-      <c r="D88">
+      <c r="D88" s="3">
         <v>14</v>
       </c>
-      <c r="E88" s="2"/>
-    </row>
-    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E88" s="9"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>1279</v>
       </c>
-      <c r="B89" s="3">
+      <c r="B89" s="2">
         <v>7000000</v>
       </c>
-      <c r="C89" s="3">
+      <c r="C89" s="2">
         <v>7000000</v>
       </c>
-      <c r="D89">
+      <c r="D89" s="3">
         <v>14</v>
       </c>
-      <c r="E89" s="2"/>
-    </row>
-    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E89" s="9"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>18</v>
       </c>
-      <c r="B90" s="3">
+      <c r="B90" s="2">
         <v>18200000</v>
       </c>
-      <c r="C90" s="3">
+      <c r="C90" s="2">
         <v>18200000</v>
       </c>
-      <c r="D90">
+      <c r="D90" s="3">
         <v>14</v>
       </c>
-      <c r="E90" s="2"/>
-    </row>
-    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E90" s="9"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>951</v>
       </c>
-      <c r="B91" s="3">
+      <c r="B91" s="2">
         <v>1060000</v>
       </c>
-      <c r="C91" s="3">
+      <c r="C91" s="2">
         <v>1060000</v>
       </c>
-      <c r="D91">
+      <c r="D91" s="3">
         <v>5</v>
       </c>
-      <c r="E91" s="2"/>
+      <c r="E91" s="9"/>
       <c r="F91" t="s">
         <v>1315</v>
       </c>
     </row>
-    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>876</v>
       </c>
-      <c r="B92" s="3">
+      <c r="B92" s="2">
         <v>1595000</v>
       </c>
-      <c r="C92" s="3">
+      <c r="C92" s="2">
         <v>1595000</v>
       </c>
-      <c r="D92">
+      <c r="D92" s="3">
         <v>6</v>
       </c>
-      <c r="E92" s="2"/>
-    </row>
-    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E92" s="9"/>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>718</v>
       </c>
-      <c r="B93" s="3">
+      <c r="B93" s="2">
         <v>2500000</v>
       </c>
-      <c r="C93" s="3">
+      <c r="C93" s="2">
         <v>2500000</v>
       </c>
-      <c r="D93">
+      <c r="D93" s="3">
         <v>8</v>
       </c>
-      <c r="E93" s="2"/>
-    </row>
-    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E93" s="9"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>158</v>
       </c>
-      <c r="B94" s="3">
+      <c r="B94" s="2">
         <v>1297800</v>
       </c>
-      <c r="C94" s="3">
+      <c r="C94" s="2">
         <v>1297800</v>
       </c>
-      <c r="D94">
+      <c r="D94" s="3">
         <v>6</v>
       </c>
-      <c r="E94" s="2"/>
-    </row>
-    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E94" s="9"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>990</v>
       </c>
-      <c r="B95" s="3">
+      <c r="B95" s="2">
         <v>2140000</v>
       </c>
-      <c r="C95" s="3">
+      <c r="C95" s="2">
         <v>2140000</v>
       </c>
-      <c r="D95">
+      <c r="D95" s="3">
         <v>7</v>
       </c>
-      <c r="E95" s="2"/>
-    </row>
-    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E95" s="9"/>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>705</v>
       </c>
-      <c r="B96" s="3">
+      <c r="B96" s="2">
         <v>1300000</v>
       </c>
-      <c r="C96" s="3">
+      <c r="C96" s="2">
         <v>1300000</v>
       </c>
-      <c r="D96">
+      <c r="D96" s="3">
         <v>6</v>
       </c>
-      <c r="E96" s="2"/>
-    </row>
-    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E96" s="9"/>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>108</v>
       </c>
-      <c r="B97" s="3">
+      <c r="B97" s="2">
         <v>3050000</v>
       </c>
-      <c r="C97" s="3">
+      <c r="C97" s="2">
         <v>3509000</v>
       </c>
-      <c r="D97">
+      <c r="D97" s="3">
         <v>9</v>
       </c>
-      <c r="E97" s="2"/>
-    </row>
-    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E97" s="9"/>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>165</v>
       </c>
-      <c r="B98" s="3">
+      <c r="B98" s="2">
         <v>2000000</v>
       </c>
-      <c r="C98" s="3">
+      <c r="C98" s="2">
         <v>2000000</v>
       </c>
-      <c r="D98">
+      <c r="D98" s="3">
         <v>7</v>
       </c>
-      <c r="E98" s="2"/>
-    </row>
-    <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E98" s="9"/>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>824</v>
       </c>
-      <c r="B99" s="3">
+      <c r="B99" s="2">
         <v>2998800</v>
       </c>
-      <c r="C99" s="3">
+      <c r="C99" s="2">
         <v>2998800</v>
       </c>
-      <c r="D99"/>
-      <c r="E99" s="2"/>
-    </row>
-    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D99" s="3">
+        <v>9</v>
+      </c>
+      <c r="E99" s="9"/>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>456</v>
       </c>
-      <c r="B100" s="3">
+      <c r="B100" s="2">
         <v>750000</v>
       </c>
-      <c r="C100" s="3">
+      <c r="C100" s="2">
         <v>959000</v>
       </c>
-      <c r="D100">
+      <c r="D100" s="3">
         <v>5</v>
       </c>
-      <c r="E100" s="2"/>
-    </row>
-    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E100" s="9"/>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>82</v>
       </c>
-      <c r="B101" s="3">
+      <c r="B101" s="2">
         <v>1380000</v>
       </c>
-      <c r="C101" s="3">
+      <c r="C101" s="2">
         <v>1380000</v>
       </c>
-      <c r="D101">
+      <c r="D101" s="3">
         <v>6</v>
       </c>
-      <c r="E101" s="2"/>
-    </row>
-    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E101" s="9"/>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>604</v>
       </c>
-      <c r="B102" s="3">
+      <c r="B102" s="2">
         <v>1480000</v>
       </c>
-      <c r="C102" s="3">
+      <c r="C102" s="2">
         <v>1480000</v>
       </c>
-      <c r="D102">
+      <c r="D102" s="3">
         <v>6</v>
       </c>
-      <c r="E102" s="2"/>
-    </row>
-    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E102" s="9"/>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>152</v>
       </c>
-      <c r="B103" s="3">
+      <c r="B103" s="2">
         <v>1550000</v>
       </c>
-      <c r="C103" s="3">
+      <c r="C103" s="2">
         <v>1550000</v>
       </c>
-      <c r="D103">
+      <c r="D103" s="3">
         <v>6</v>
       </c>
-      <c r="E103" s="2"/>
-    </row>
-    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E103" s="9"/>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>34</v>
-      </c>
-      <c r="B104" s="3">
-        <v>1650000</v>
-      </c>
-      <c r="C104" s="3">
-        <v>3150000</v>
-      </c>
-      <c r="D104">
-        <v>8</v>
-      </c>
-      <c r="E104" s="2"/>
-    </row>
-    <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+      <c r="B104" s="2">
+        <v>4507000</v>
+      </c>
+      <c r="C104" s="2">
+        <v>4507000</v>
+      </c>
+      <c r="D104" s="3">
+        <v>12</v>
+      </c>
+      <c r="E104" s="9"/>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>449</v>
       </c>
-      <c r="B105" s="3">
+      <c r="B105" s="2">
         <v>1701000</v>
       </c>
-      <c r="C105" s="3">
+      <c r="C105" s="2">
         <v>1701000</v>
       </c>
-      <c r="D105">
+      <c r="D105" s="3">
         <v>6</v>
       </c>
-      <c r="E105" s="2"/>
-    </row>
-    <row r="106" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E105" s="9"/>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>209</v>
       </c>
-      <c r="B106" s="3">
+      <c r="B106" s="2">
         <v>1900000</v>
       </c>
-      <c r="C106" s="3">
+      <c r="C106" s="2">
         <v>1900000</v>
       </c>
-      <c r="D106">
+      <c r="D106" s="3">
         <v>8</v>
       </c>
-      <c r="E106" s="2"/>
+      <c r="E106" s="9"/>
       <c r="F106" t="s">
         <v>1315</v>
       </c>
     </row>
-    <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>57</v>
       </c>
-      <c r="B107" s="3">
+      <c r="B107" s="2">
         <v>2003400</v>
       </c>
-      <c r="C107" s="3">
+      <c r="C107" s="2">
         <v>2003400</v>
       </c>
-      <c r="D107">
+      <c r="D107" s="3">
         <v>8</v>
       </c>
-      <c r="E107" s="2"/>
-    </row>
-    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E107" s="9"/>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>284</v>
       </c>
-      <c r="B108" s="3">
+      <c r="B108" s="2">
         <v>2150000</v>
       </c>
-      <c r="C108" s="3">
+      <c r="C108" s="2">
         <v>2150000</v>
       </c>
-      <c r="D108">
+      <c r="D108" s="3">
         <v>8</v>
       </c>
-      <c r="E108" s="2"/>
-    </row>
-    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E108" s="9"/>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>274</v>
-      </c>
-      <c r="B109" s="3">
-        <v>2200000</v>
-      </c>
-      <c r="C109" s="3">
-        <v>2200000</v>
-      </c>
-      <c r="D109"/>
-      <c r="E109" s="2"/>
-    </row>
-    <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>668</v>
+      </c>
+      <c r="B109" s="2">
+        <v>3380000</v>
+      </c>
+      <c r="C109" s="2">
+        <v>3380000</v>
+      </c>
+      <c r="D109" s="3">
+        <v>9</v>
+      </c>
+      <c r="E109" s="9"/>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>341</v>
       </c>
-      <c r="B110" s="3">
+      <c r="B110" s="2">
         <v>2650000</v>
       </c>
-      <c r="C110" s="3">
+      <c r="C110" s="2">
         <v>2650000</v>
       </c>
-      <c r="D110">
+      <c r="D110" s="3">
         <v>8</v>
       </c>
-      <c r="E110" s="2"/>
-    </row>
-    <row r="111" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E110" s="9"/>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>96</v>
       </c>
-      <c r="B111" s="3">
+      <c r="B111" s="2">
         <v>2750000</v>
       </c>
-      <c r="C111" s="3">
+      <c r="C111" s="2">
         <v>2750000</v>
       </c>
-      <c r="D111">
+      <c r="D111" s="3">
         <v>8</v>
       </c>
-      <c r="E111" s="2"/>
-    </row>
-    <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E111" s="9"/>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>305</v>
       </c>
-      <c r="B112" s="3">
+      <c r="B112" s="2">
         <v>2800000</v>
       </c>
-      <c r="C112" s="3">
+      <c r="C112" s="2">
         <v>2800000</v>
       </c>
-      <c r="D112">
+      <c r="D112" s="3">
         <v>8</v>
       </c>
-      <c r="E112" s="2"/>
-    </row>
-    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E112" s="9"/>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>231</v>
       </c>
-      <c r="B113" s="3">
+      <c r="B113" s="2">
         <v>2900000</v>
       </c>
-      <c r="C113" s="3">
+      <c r="C113" s="2">
         <v>2900000</v>
       </c>
-      <c r="D113">
+      <c r="D113" s="3">
         <v>8</v>
       </c>
-      <c r="E113" s="2"/>
-    </row>
-    <row r="114" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E113" s="9"/>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>866</v>
       </c>
-      <c r="B114" s="3">
+      <c r="B114" s="2">
         <v>3050000</v>
       </c>
-      <c r="C114" s="3">
+      <c r="C114" s="2">
         <v>3050000</v>
       </c>
-      <c r="D114"/>
-      <c r="E114" s="2"/>
-    </row>
-    <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D114" s="3">
+        <v>9</v>
+      </c>
+      <c r="E114" s="9"/>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>84</v>
       </c>
-      <c r="B115" s="3">
+      <c r="B115" s="2">
         <v>3150000</v>
       </c>
-      <c r="C115" s="3">
+      <c r="C115" s="2">
         <v>3150000</v>
       </c>
-      <c r="D115"/>
-      <c r="E115" s="2"/>
-    </row>
-    <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D115" s="3">
+        <v>8</v>
+      </c>
+      <c r="E115" s="9"/>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>322</v>
       </c>
-      <c r="B116" s="3">
+      <c r="B116" s="2">
         <v>3200000</v>
       </c>
-      <c r="C116" s="3">
+      <c r="C116" s="2">
         <v>3200000</v>
       </c>
-      <c r="D116">
+      <c r="D116" s="3">
         <v>8</v>
       </c>
-      <c r="E116" s="2"/>
+      <c r="E116" s="9"/>
       <c r="F116" t="s">
         <v>1328</v>
       </c>
@@ -22662,718 +22726,780 @@
       <c r="A117" t="s">
         <v>295</v>
       </c>
-      <c r="B117" s="3">
+      <c r="B117" s="2">
         <v>3200000</v>
       </c>
-      <c r="C117" s="3">
+      <c r="C117" s="2">
         <v>3200000</v>
       </c>
-      <c r="D117">
+      <c r="D117" s="3">
         <v>8</v>
       </c>
-      <c r="E117" s="2"/>
+      <c r="E117" s="9"/>
       <c r="F117" t="s">
         <v>1328</v>
       </c>
     </row>
-    <row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>406</v>
       </c>
-      <c r="B118" s="3">
+      <c r="B118" s="2">
         <v>3200000</v>
       </c>
-      <c r="C118" s="3">
+      <c r="C118" s="2">
         <v>3200000</v>
       </c>
-      <c r="D118"/>
-      <c r="E118" s="2"/>
-    </row>
-    <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D118" s="3">
+        <v>8</v>
+      </c>
+      <c r="E118" s="9"/>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>197</v>
       </c>
-      <c r="B119" s="3">
+      <c r="B119" s="2">
         <v>3274000</v>
       </c>
-      <c r="C119" s="3">
+      <c r="C119" s="2">
         <v>3274000</v>
       </c>
-      <c r="D119"/>
-      <c r="E119" s="2"/>
-    </row>
-    <row r="120" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D119" s="3">
+        <v>10</v>
+      </c>
+      <c r="E119" s="9"/>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>564</v>
       </c>
-      <c r="B120" s="3">
+      <c r="B120" s="2">
         <v>3300000</v>
       </c>
-      <c r="C120" s="3">
+      <c r="C120" s="2">
         <v>3300000</v>
       </c>
-      <c r="D120"/>
-      <c r="E120" s="2"/>
-    </row>
-    <row r="121" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D120" s="3">
+        <v>9</v>
+      </c>
+      <c r="E120" s="9"/>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>668</v>
-      </c>
-      <c r="B121" s="3">
-        <v>3380000</v>
-      </c>
-      <c r="C121" s="3">
-        <v>3380000</v>
-      </c>
-      <c r="D121">
-        <v>9</v>
-      </c>
-      <c r="E121" s="2"/>
-    </row>
-    <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>392</v>
+      </c>
+      <c r="B121" s="2">
+        <v>3800000</v>
+      </c>
+      <c r="C121" s="2">
+        <v>3800000</v>
+      </c>
+      <c r="D121" s="3">
+        <v>10</v>
+      </c>
+      <c r="E121" s="9"/>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>91</v>
       </c>
-      <c r="B122" s="3">
+      <c r="B122" s="2">
         <v>3500000</v>
       </c>
-      <c r="C122" s="3">
+      <c r="C122" s="2">
         <v>3637000</v>
       </c>
-      <c r="D122"/>
-      <c r="E122" s="2"/>
-    </row>
-    <row r="123" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D122" s="3">
+        <v>10</v>
+      </c>
+      <c r="E122" s="9"/>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>1246</v>
       </c>
-      <c r="B123" s="3">
+      <c r="B123" s="2">
         <v>3500000</v>
       </c>
-      <c r="C123" s="3">
+      <c r="C123" s="2">
         <v>3500000</v>
       </c>
-      <c r="D123"/>
-      <c r="E123" s="2"/>
-    </row>
-    <row r="124" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D123" s="3">
+        <v>10</v>
+      </c>
+      <c r="E123" s="9"/>
+      <c r="F123" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>211</v>
       </c>
-      <c r="B124" s="3">
+      <c r="B124" s="2">
         <v>3600000</v>
       </c>
-      <c r="C124" s="3">
+      <c r="C124" s="2">
         <v>3600000</v>
       </c>
-      <c r="D124"/>
-      <c r="E124" s="2"/>
-    </row>
-    <row r="125" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D124" s="3">
+        <v>9</v>
+      </c>
+      <c r="E124" s="9"/>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>65</v>
       </c>
-      <c r="B125" s="3">
+      <c r="B125" s="2">
         <v>3700000</v>
       </c>
-      <c r="C125" s="3">
+      <c r="C125" s="2">
         <v>3700000</v>
       </c>
-      <c r="D125"/>
-      <c r="E125" s="2"/>
-    </row>
-    <row r="126" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D125" s="3">
+        <v>10</v>
+      </c>
+      <c r="E125" s="9"/>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>344</v>
       </c>
-      <c r="B126" s="3">
+      <c r="B126" s="2">
         <v>3700000</v>
       </c>
-      <c r="C126" s="3">
+      <c r="C126" s="2">
         <v>3700000</v>
       </c>
-      <c r="D126"/>
-      <c r="E126" s="2"/>
-    </row>
-    <row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D126" s="3">
+        <v>10</v>
+      </c>
+      <c r="E126" s="9"/>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>392</v>
-      </c>
-      <c r="B127" s="3">
-        <v>3800000</v>
-      </c>
-      <c r="C127" s="3">
-        <v>3800000</v>
-      </c>
-      <c r="D127">
+        <v>513</v>
+      </c>
+      <c r="B127" s="2">
+        <v>4300000</v>
+      </c>
+      <c r="C127" s="2">
+        <v>4300000</v>
+      </c>
+      <c r="D127" s="3">
+        <v>10</v>
+      </c>
+      <c r="E127" s="9"/>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>274</v>
+      </c>
+      <c r="B128" s="2">
+        <v>2200000</v>
+      </c>
+      <c r="C128" s="2">
+        <v>2200000</v>
+      </c>
+      <c r="D128" s="3">
         <v>9</v>
       </c>
-      <c r="E127" s="2"/>
-    </row>
-    <row r="128" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
+      <c r="E128" s="9"/>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>189</v>
+      </c>
+      <c r="B129" s="2">
+        <v>4750000</v>
+      </c>
+      <c r="C129" s="2">
+        <v>4750000</v>
+      </c>
+      <c r="D129" s="3">
+        <v>12</v>
+      </c>
+      <c r="E129" s="9"/>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>34</v>
+      </c>
+      <c r="B130" s="2">
+        <v>1650000</v>
+      </c>
+      <c r="C130" s="2">
+        <v>3150000</v>
+      </c>
+      <c r="D130" s="3">
+        <v>9</v>
+      </c>
+      <c r="E130" s="9"/>
+      <c r="F130" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>375</v>
+      </c>
+      <c r="B131" s="2">
+        <v>4300000</v>
+      </c>
+      <c r="C131" s="2">
+        <v>4300000</v>
+      </c>
+      <c r="D131" s="3">
+        <v>10</v>
+      </c>
+      <c r="E131" s="9"/>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>69</v>
+      </c>
+      <c r="B132" s="2">
+        <v>5000000</v>
+      </c>
+      <c r="C132" s="2">
+        <v>5000000</v>
+      </c>
+      <c r="D132" s="3">
+        <v>12</v>
+      </c>
+      <c r="E132" s="9"/>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
         <v>11</v>
       </c>
-      <c r="B128" s="3">
+      <c r="B133" s="2">
         <v>4000000</v>
       </c>
-      <c r="C128" s="3">
+      <c r="C133" s="2">
         <v>4000000</v>
       </c>
-      <c r="D128"/>
-      <c r="E128" s="2"/>
-    </row>
-    <row r="129" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>513</v>
-      </c>
-      <c r="B129" s="3">
-        <v>4300000</v>
-      </c>
-      <c r="C129" s="3">
-        <v>4300000</v>
-      </c>
-      <c r="D129"/>
-      <c r="E129" s="2"/>
-    </row>
-    <row r="130" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>375</v>
-      </c>
-      <c r="B130" s="3">
-        <v>4300000</v>
-      </c>
-      <c r="C130" s="3">
-        <v>4300000</v>
-      </c>
-      <c r="D130"/>
-      <c r="E130" s="2"/>
-    </row>
-    <row r="131" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>268</v>
-      </c>
-      <c r="B131" s="3">
-        <v>4507000</v>
-      </c>
-      <c r="C131" s="3">
-        <v>4507000</v>
-      </c>
-      <c r="D131"/>
-      <c r="E131" s="2"/>
-    </row>
-    <row r="132" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>189</v>
-      </c>
-      <c r="B132" s="3">
-        <v>4750000</v>
-      </c>
-      <c r="C132" s="3">
-        <v>4750000</v>
-      </c>
-      <c r="D132"/>
-      <c r="E132" s="2"/>
-    </row>
-    <row r="133" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>69</v>
-      </c>
-      <c r="B133" s="3">
-        <v>5000000</v>
-      </c>
-      <c r="C133" s="3">
-        <v>5000000</v>
-      </c>
-      <c r="D133"/>
-      <c r="E133" s="2"/>
-    </row>
-    <row r="134" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D133" s="3">
+        <v>10</v>
+      </c>
+      <c r="E133" s="9"/>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>29</v>
       </c>
-      <c r="B134" s="3">
+      <c r="B134" s="2">
         <v>1341000</v>
       </c>
-      <c r="C134" s="3">
+      <c r="C134" s="2">
         <v>4650000</v>
       </c>
-      <c r="D134">
+      <c r="D134" s="3">
         <v>7</v>
       </c>
-      <c r="E134" s="7" t="s">
+      <c r="E134" s="11" t="s">
         <v>1326</v>
       </c>
       <c r="F134" t="s">
         <v>1327</v>
       </c>
     </row>
-    <row r="135" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>550</v>
       </c>
-      <c r="B135" s="3">
+      <c r="B135" s="2">
         <v>3700000</v>
       </c>
-      <c r="C135" s="3">
+      <c r="C135" s="2">
         <v>3700000</v>
       </c>
-      <c r="D135">
+      <c r="D135" s="3">
         <v>8</v>
       </c>
-      <c r="E135" s="2"/>
-    </row>
-    <row r="136" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E135" s="9"/>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>528</v>
       </c>
-      <c r="B136" s="3">
+      <c r="B136" s="2">
         <v>1800000</v>
       </c>
-      <c r="C136" s="3">
+      <c r="C136" s="2">
         <v>3433000</v>
       </c>
-      <c r="D136">
+      <c r="D136" s="3">
         <v>8</v>
       </c>
-      <c r="E136" s="2"/>
-    </row>
-    <row r="137" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E136" s="9"/>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>234</v>
       </c>
-      <c r="B137" s="3">
+      <c r="B137" s="2">
         <v>2900000</v>
       </c>
-      <c r="C137" s="3">
+      <c r="C137" s="2">
         <v>2900000</v>
       </c>
-      <c r="D137">
+      <c r="D137" s="3">
         <v>8</v>
       </c>
-      <c r="E137" s="2"/>
-    </row>
-    <row r="138" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E137" s="9"/>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>831</v>
       </c>
-      <c r="B138" s="3">
+      <c r="B138" s="2">
         <v>2506000</v>
       </c>
-      <c r="C138" s="3">
+      <c r="C138" s="2">
         <v>2506000</v>
       </c>
-      <c r="D138">
+      <c r="D138" s="3">
         <v>8</v>
       </c>
-      <c r="E138" s="2"/>
-    </row>
-    <row r="139" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E138" s="9"/>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>260</v>
       </c>
-      <c r="B139" s="3">
+      <c r="B139" s="2">
         <v>1200000</v>
       </c>
-      <c r="C139" s="3">
+      <c r="C139" s="2">
         <v>1200000</v>
       </c>
-      <c r="D139">
+      <c r="D139" s="3">
         <v>8</v>
       </c>
-      <c r="E139" s="2"/>
-    </row>
-    <row r="140" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E139" s="9"/>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>244</v>
       </c>
-      <c r="B140" s="3">
+      <c r="B140" s="2">
         <v>1102000</v>
       </c>
-      <c r="C140" s="3">
+      <c r="C140" s="2">
         <v>1102000</v>
       </c>
-      <c r="D140"/>
-      <c r="E140" s="2"/>
-    </row>
-    <row r="141" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D140" s="3">
+        <v>5</v>
+      </c>
+      <c r="E140" s="9"/>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>32</v>
       </c>
-      <c r="B141" s="3">
+      <c r="B141" s="2">
         <v>540000</v>
       </c>
-      <c r="C141" s="3">
+      <c r="C141" s="2">
         <v>1580000</v>
       </c>
-      <c r="D141" s="5">
+      <c r="D141" s="4">
         <v>1</v>
       </c>
-      <c r="E141" s="5" t="s">
+      <c r="E141" s="12" t="s">
         <v>1312</v>
       </c>
-      <c r="F141" s="5"/>
-    </row>
-    <row r="142" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F141" s="4"/>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>163</v>
       </c>
-      <c r="B142" s="3">
+      <c r="B142" s="2">
         <v>600000</v>
       </c>
-      <c r="C142" s="3">
+      <c r="C142" s="2">
         <v>600000</v>
       </c>
-      <c r="D142" s="5">
+      <c r="D142" s="4">
         <v>1</v>
       </c>
-      <c r="E142" s="5"/>
-      <c r="F142" s="5"/>
-    </row>
-    <row r="143" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E142" s="12"/>
+      <c r="F142" s="4"/>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>382</v>
       </c>
-      <c r="B143" s="3">
+      <c r="B143" s="2">
         <v>550000</v>
       </c>
-      <c r="C143" s="3">
+      <c r="C143" s="2">
         <v>637000</v>
       </c>
-      <c r="D143">
+      <c r="D143" s="3">
         <v>1</v>
       </c>
-      <c r="E143"/>
-    </row>
-    <row r="144" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E143" s="13"/>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>24</v>
       </c>
-      <c r="B144" s="3">
+      <c r="B144" s="2">
         <v>4900000</v>
       </c>
-      <c r="C144" s="3">
+      <c r="C144" s="2">
         <v>4900000</v>
       </c>
-      <c r="D144"/>
-      <c r="E144"/>
-    </row>
-    <row r="145" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D144" s="3">
+        <v>12</v>
+      </c>
+      <c r="E144" s="13"/>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>387</v>
       </c>
-      <c r="B145" s="3">
+      <c r="B145" s="2">
         <v>1105000</v>
       </c>
-      <c r="C145" s="3">
+      <c r="C145" s="2">
         <v>2297000</v>
       </c>
-      <c r="D145">
+      <c r="D145" s="3">
         <v>6</v>
       </c>
-      <c r="E145"/>
-    </row>
-    <row r="146" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E145" s="13"/>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>1070</v>
       </c>
-      <c r="B146" s="3">
+      <c r="B146" s="2">
         <v>972000</v>
       </c>
-      <c r="C146" s="3">
+      <c r="C146" s="2">
         <v>1250000</v>
       </c>
-      <c r="D146">
+      <c r="D146" s="3">
         <v>6</v>
       </c>
-      <c r="E146"/>
-    </row>
-    <row r="147" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E146" s="13"/>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>192</v>
       </c>
-      <c r="B147" s="3">
+      <c r="B147" s="2">
         <v>2750000</v>
       </c>
-      <c r="C147" s="3">
+      <c r="C147" s="2">
         <v>3650000</v>
       </c>
-      <c r="D147"/>
-      <c r="E147"/>
-    </row>
-    <row r="148" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D147" s="3">
+        <v>9</v>
+      </c>
+      <c r="E147" s="13"/>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>745</v>
       </c>
-      <c r="B148" s="3">
+      <c r="B148" s="2">
         <v>2500000</v>
       </c>
-      <c r="C148" s="3">
+      <c r="C148" s="2">
         <v>2500000</v>
       </c>
-      <c r="D148">
+      <c r="D148" s="3">
         <v>7</v>
       </c>
-      <c r="E148"/>
-    </row>
-    <row r="149" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E148" s="13"/>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>1251</v>
       </c>
-      <c r="B149" s="3">
+      <c r="B149" s="2">
         <v>992000</v>
       </c>
-      <c r="C149" s="3">
+      <c r="C149" s="2">
         <v>992000</v>
       </c>
-      <c r="D149">
+      <c r="D149" s="3">
         <v>5</v>
       </c>
-      <c r="E149"/>
-    </row>
-    <row r="150" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E149" s="13"/>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>330</v>
       </c>
-      <c r="B150" s="3">
+      <c r="B150" s="2">
         <v>6100000</v>
       </c>
-      <c r="C150" s="3">
+      <c r="C150" s="2">
         <v>6100000</v>
       </c>
-      <c r="D150"/>
-      <c r="E150"/>
-    </row>
-    <row r="151" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D150" s="3">
+        <v>13</v>
+      </c>
+      <c r="E150" s="13"/>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>648</v>
       </c>
-      <c r="B151" s="3">
+      <c r="B151" s="2">
         <v>5600000</v>
       </c>
-      <c r="C151" s="3">
+      <c r="C151" s="2">
         <v>5600000</v>
       </c>
-      <c r="D151"/>
-      <c r="E151"/>
-    </row>
-    <row r="152" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D151" s="3">
+        <v>13</v>
+      </c>
+      <c r="E151" s="13"/>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>48</v>
       </c>
-      <c r="B152" s="3">
+      <c r="B152" s="2">
         <v>6300000</v>
       </c>
-      <c r="C152" s="3">
+      <c r="C152" s="2">
         <v>6300000</v>
       </c>
-      <c r="D152"/>
-      <c r="E152"/>
-    </row>
-    <row r="153" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D152" s="3">
+        <v>13</v>
+      </c>
+      <c r="E152" s="13"/>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>118</v>
       </c>
-      <c r="B153" s="3">
+      <c r="B153" s="2">
         <v>6000000</v>
       </c>
-      <c r="C153" s="3">
+      <c r="C153" s="2">
         <v>6000000</v>
       </c>
-      <c r="D153"/>
-      <c r="E153"/>
-    </row>
-    <row r="154" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D153" s="3">
+        <v>13</v>
+      </c>
+      <c r="E153" s="13"/>
+      <c r="F153" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>204</v>
       </c>
-      <c r="B154" s="3">
+      <c r="B154" s="2">
         <v>6700000</v>
       </c>
-      <c r="C154" s="3">
+      <c r="C154" s="2">
         <v>6700000</v>
       </c>
-      <c r="D154"/>
-      <c r="E154"/>
-    </row>
-    <row r="155" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D154" s="3">
+        <v>13</v>
+      </c>
+      <c r="E154" s="13"/>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>123</v>
       </c>
-      <c r="B155" s="3">
+      <c r="B155" s="2">
         <v>5850000</v>
       </c>
-      <c r="C155" s="3">
+      <c r="C155" s="2">
         <v>5850000</v>
       </c>
-      <c r="D155"/>
-      <c r="E155"/>
-    </row>
-    <row r="156" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D155" s="3">
+        <v>13</v>
+      </c>
+      <c r="E155" s="13"/>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>254</v>
       </c>
-      <c r="B156" s="3">
+      <c r="B156" s="2">
         <v>6700000</v>
       </c>
-      <c r="C156" s="3">
+      <c r="C156" s="2">
         <v>6700000</v>
       </c>
-      <c r="D156"/>
-      <c r="E156"/>
-    </row>
-    <row r="157" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D156" s="3">
+        <v>13</v>
+      </c>
+      <c r="E156" s="13"/>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>160</v>
       </c>
-      <c r="B157" s="3">
+      <c r="B157" s="2">
         <v>7500000</v>
       </c>
-      <c r="C157" s="3">
+      <c r="C157" s="2">
         <v>7500000</v>
       </c>
-      <c r="D157"/>
-      <c r="E157"/>
-    </row>
-    <row r="158" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D157" s="3">
+        <v>13</v>
+      </c>
+      <c r="E157" s="13"/>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>170</v>
       </c>
-      <c r="B158" s="3">
+      <c r="B158" s="2">
         <v>5600000</v>
       </c>
-      <c r="C158" s="3">
+      <c r="C158" s="2">
         <v>5600000</v>
       </c>
-      <c r="D158"/>
-      <c r="E158"/>
-    </row>
-    <row r="159" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D158" s="3">
+        <v>13</v>
+      </c>
+      <c r="E158" s="13"/>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>126</v>
       </c>
-      <c r="B159" s="3">
+      <c r="B159" s="2">
         <v>6738000</v>
       </c>
-      <c r="C159" s="3">
+      <c r="C159" s="2">
         <v>6738000</v>
       </c>
-      <c r="D159"/>
-      <c r="E159"/>
-    </row>
-    <row r="160" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D159" s="3">
+        <v>13</v>
+      </c>
+      <c r="E159" s="13"/>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>106</v>
       </c>
-      <c r="B160" s="3">
+      <c r="B160" s="2">
         <v>1680000</v>
       </c>
-      <c r="C160" s="3">
+      <c r="C160" s="2">
         <v>1680000</v>
       </c>
-      <c r="D160">
+      <c r="D160" s="3">
         <v>6</v>
       </c>
-      <c r="E160"/>
-    </row>
-    <row r="161" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E160" s="13"/>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>350</v>
       </c>
-      <c r="B161" s="3">
+      <c r="B161" s="2">
         <v>1372000</v>
       </c>
-      <c r="C161" s="3">
+      <c r="C161" s="2">
         <v>1372000</v>
       </c>
-      <c r="D161">
+      <c r="D161" s="3">
         <v>6</v>
       </c>
-      <c r="E161"/>
-    </row>
-    <row r="162" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E161" s="13"/>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>41</v>
       </c>
-      <c r="B162" s="3">
+      <c r="B162" s="2">
         <v>1000000</v>
       </c>
-      <c r="C162" s="3">
+      <c r="C162" s="2">
         <v>1650000</v>
       </c>
-      <c r="D162">
+      <c r="D162" s="3">
         <v>6</v>
       </c>
-      <c r="E162"/>
+      <c r="E162" s="13"/>
       <c r="F162" t="s">
         <v>1315</v>
       </c>
     </row>
-    <row r="163" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>920</v>
       </c>
-      <c r="B163" s="3">
+      <c r="B163" s="2">
         <v>3715000</v>
       </c>
-      <c r="C163" s="3">
+      <c r="C163" s="2">
         <v>3715000</v>
       </c>
-      <c r="D163"/>
-      <c r="E163"/>
-    </row>
-    <row r="164" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D163" s="3">
+        <v>10</v>
+      </c>
+      <c r="E163" s="13"/>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>956</v>
       </c>
-      <c r="B164" s="3">
+      <c r="B164" s="2">
         <v>848000</v>
       </c>
-      <c r="C164" s="3">
+      <c r="C164" s="2">
         <v>1127000</v>
       </c>
-      <c r="D164">
+      <c r="D164" s="3">
         <v>6</v>
       </c>
-      <c r="E164"/>
-    </row>
-    <row r="165" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E164" s="13"/>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>1222</v>
       </c>
-      <c r="B165" s="3">
+      <c r="B165" s="2">
         <v>1100000</v>
       </c>
-      <c r="C165" s="3">
+      <c r="C165" s="2">
         <v>1100000</v>
       </c>
-      <c r="D165">
+      <c r="D165" s="3">
         <v>5</v>
       </c>
-      <c r="E165"/>
-    </row>
-    <row r="166" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E165" s="13"/>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>237</v>
       </c>
-      <c r="B166" s="3">
+      <c r="B166" s="2">
         <v>3250000</v>
       </c>
-      <c r="C166" s="3">
+      <c r="C166" s="2">
         <v>3250000</v>
       </c>
-      <c r="D166"/>
-      <c r="E166"/>
+      <c r="D166" s="3">
+        <v>10</v>
+      </c>
+      <c r="E166" s="13"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F166">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Jefe de Control Calidad"/>
-      </filters>
-    </filterColumn>
-    <sortState ref="A101:F133">
-      <sortCondition ref="B1:B166"/>
+    <sortState ref="A44:F166">
+      <sortCondition ref="A1:A166"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/excels/reporte_personas_cargos_chile.xlsx
+++ b/excels/reporte_personas_cargos_chile.xlsx
@@ -17,6 +17,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Cargos!$A$1:$F$166</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Personas!$A$1:$I$1</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -4114,7 +4115,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -4151,6 +4152,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda [0]" xfId="1" builtinId="7"/>
@@ -4456,11 +4460,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I567"/>
   <sheetViews>
-    <sheetView topLeftCell="A548" workbookViewId="0"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="9" max="9" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="55.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="55.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -4473,7 +4488,7 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -4502,7 +4517,7 @@
       <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>4000000</v>
       </c>
       <c r="E2" t="s">
@@ -4531,7 +4546,7 @@
       <c r="C3" t="s">
         <v>16</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>10400000</v>
       </c>
       <c r="E3" t="s">
@@ -4560,7 +4575,7 @@
       <c r="C4" t="s">
         <v>21</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>11000000</v>
       </c>
       <c r="E4" t="s">
@@ -4589,7 +4604,7 @@
       <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>4900000</v>
       </c>
       <c r="E5" t="s">
@@ -4618,7 +4633,7 @@
       <c r="C6" t="s">
         <v>29</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <v>4650000</v>
       </c>
       <c r="E6" t="s">
@@ -4647,7 +4662,7 @@
       <c r="C7" t="s">
         <v>32</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <v>980000</v>
       </c>
       <c r="E7" t="s">
@@ -4676,7 +4691,7 @@
       <c r="C8" t="s">
         <v>32</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2">
         <v>895000</v>
       </c>
       <c r="E8" t="s">
@@ -4705,7 +4720,7 @@
       <c r="C9" t="s">
         <v>32</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="2">
         <v>740000</v>
       </c>
       <c r="E9" t="s">
@@ -4734,7 +4749,7 @@
       <c r="C10" t="s">
         <v>32</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="2">
         <v>985000</v>
       </c>
       <c r="E10" t="s">
@@ -4763,7 +4778,7 @@
       <c r="C11" t="s">
         <v>32</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="2">
         <v>690000</v>
       </c>
       <c r="E11" t="s">
@@ -4792,7 +4807,7 @@
       <c r="C12" t="s">
         <v>48</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="2">
         <v>6300000</v>
       </c>
       <c r="E12" t="s">
@@ -4821,7 +4836,7 @@
       <c r="C13" t="s">
         <v>32</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="2">
         <v>750000</v>
       </c>
       <c r="E13" t="s">
@@ -4850,7 +4865,7 @@
       <c r="C14" t="s">
         <v>55</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="2">
         <v>567000</v>
       </c>
       <c r="E14" t="s">
@@ -4879,7 +4894,7 @@
       <c r="C15" t="s">
         <v>32</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="2">
         <v>1200000</v>
       </c>
       <c r="E15" t="s">
@@ -4908,7 +4923,7 @@
       <c r="C16" t="s">
         <v>32</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="2">
         <v>740000</v>
       </c>
       <c r="E16" t="s">
@@ -4937,7 +4952,7 @@
       <c r="C17" t="s">
         <v>65</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="2">
         <v>3700000</v>
       </c>
       <c r="E17" t="s">
@@ -4966,7 +4981,7 @@
       <c r="C18" t="s">
         <v>29</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="2">
         <v>3650000</v>
       </c>
       <c r="E18" t="s">
@@ -4995,7 +5010,7 @@
       <c r="C19" t="s">
         <v>72</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="2">
         <v>550000</v>
       </c>
       <c r="E19" t="s">
@@ -5024,7 +5039,7 @@
       <c r="C20" t="s">
         <v>32</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="2">
         <v>740000</v>
       </c>
       <c r="E20" t="s">
@@ -5053,7 +5068,7 @@
       <c r="C21" t="s">
         <v>29</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="2">
         <v>1341000</v>
       </c>
       <c r="E21" t="s">
@@ -5082,7 +5097,7 @@
       <c r="C22" t="s">
         <v>82</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="2">
         <v>1380000</v>
       </c>
       <c r="E22" t="s">
@@ -5111,7 +5126,7 @@
       <c r="C23" t="s">
         <v>32</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="2">
         <v>885000</v>
       </c>
       <c r="E23" t="s">
@@ -5140,7 +5155,7 @@
       <c r="C24" t="s">
         <v>32</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="2">
         <v>550000</v>
       </c>
       <c r="E24" t="s">
@@ -5169,7 +5184,7 @@
       <c r="C25" t="s">
         <v>91</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="2">
         <v>3500000</v>
       </c>
       <c r="E25" t="s">
@@ -5198,7 +5213,7 @@
       <c r="C26" t="s">
         <v>94</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="2">
         <v>933000</v>
       </c>
       <c r="E26" t="s">
@@ -5227,7 +5242,7 @@
       <c r="C27" t="s">
         <v>99</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="2">
         <v>1150000</v>
       </c>
       <c r="E27" t="s">
@@ -5256,7 +5271,7 @@
       <c r="C28" t="s">
         <v>32</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="2">
         <v>985000</v>
       </c>
       <c r="E28" t="s">
@@ -5285,7 +5300,7 @@
       <c r="C29" t="s">
         <v>106</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="2">
         <v>1680000</v>
       </c>
       <c r="E29" t="s">
@@ -5314,7 +5329,7 @@
       <c r="C30" t="s">
         <v>32</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="2">
         <v>985000</v>
       </c>
       <c r="E30" t="s">
@@ -5343,7 +5358,7 @@
       <c r="C31" t="s">
         <v>57</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="2">
         <v>2003400</v>
       </c>
       <c r="E31" t="s">
@@ -5372,7 +5387,7 @@
       <c r="C32" t="s">
         <v>116</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="2">
         <v>2900000</v>
       </c>
       <c r="E32" t="s">
@@ -5401,7 +5416,7 @@
       <c r="C33" t="s">
         <v>121</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="2">
         <v>2650000</v>
       </c>
       <c r="E33" t="s">
@@ -5430,7 +5445,7 @@
       <c r="C34" t="s">
         <v>34</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="2">
         <v>3150000</v>
       </c>
       <c r="E34" t="s">
@@ -5459,7 +5474,7 @@
       <c r="C35" t="s">
         <v>32</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="2">
         <v>1450000</v>
       </c>
       <c r="E35" t="s">
@@ -5488,7 +5503,7 @@
       <c r="C36" t="s">
         <v>32</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="2">
         <v>725000</v>
       </c>
       <c r="E36" t="s">
@@ -5517,7 +5532,7 @@
       <c r="C37" t="s">
         <v>32</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="2">
         <v>1075000</v>
       </c>
       <c r="E37" t="s">
@@ -5546,7 +5561,7 @@
       <c r="C38" t="s">
         <v>136</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="2">
         <v>10200000</v>
       </c>
       <c r="E38" t="s">
@@ -5575,7 +5590,7 @@
       <c r="C39" t="s">
         <v>32</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="2">
         <v>550000</v>
       </c>
       <c r="E39" t="s">
@@ -5604,7 +5619,7 @@
       <c r="C40" t="s">
         <v>50</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="2">
         <v>10000000</v>
       </c>
       <c r="E40" t="s">
@@ -5633,7 +5648,7 @@
       <c r="C41" t="s">
         <v>32</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="2">
         <v>651000</v>
       </c>
       <c r="E41" t="s">
@@ -5662,7 +5677,7 @@
       <c r="C42" t="s">
         <v>41</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="2">
         <v>1450000</v>
       </c>
       <c r="E42" t="s">
@@ -5691,7 +5706,7 @@
       <c r="C43" t="s">
         <v>32</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="2">
         <v>775000</v>
       </c>
       <c r="E43" t="s">
@@ -5720,7 +5735,7 @@
       <c r="C44" t="s">
         <v>32</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="2">
         <v>550000</v>
       </c>
       <c r="E44" t="s">
@@ -5749,7 +5764,7 @@
       <c r="C45" t="s">
         <v>32</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="2">
         <v>570000</v>
       </c>
       <c r="E45" t="s">
@@ -5778,7 +5793,7 @@
       <c r="C46" t="s">
         <v>152</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="2">
         <v>1550000</v>
       </c>
       <c r="E46" t="s">
@@ -5807,7 +5822,7 @@
       <c r="C47" t="s">
         <v>29</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="2">
         <v>2202500</v>
       </c>
       <c r="E47" t="s">
@@ -5836,7 +5851,7 @@
       <c r="C48" t="s">
         <v>69</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="2">
         <v>5000000</v>
       </c>
       <c r="E48" t="s">
@@ -5865,7 +5880,7 @@
       <c r="C49" t="s">
         <v>158</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="2">
         <v>1297800</v>
       </c>
       <c r="E49" t="s">
@@ -5894,7 +5909,7 @@
       <c r="C50" t="s">
         <v>163</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="2">
         <v>600000</v>
       </c>
       <c r="E50" t="s">
@@ -5923,7 +5938,7 @@
       <c r="C51" t="s">
         <v>168</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="2">
         <v>1063000</v>
       </c>
       <c r="E51" t="s">
@@ -5952,7 +5967,7 @@
       <c r="C52" t="s">
         <v>32</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="2">
         <v>820000</v>
       </c>
       <c r="E52" t="s">
@@ -5981,7 +5996,7 @@
       <c r="C53" t="s">
         <v>32</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="2">
         <v>670000</v>
       </c>
       <c r="E53" t="s">
@@ -6010,7 +6025,7 @@
       <c r="C54" t="s">
         <v>32</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="2">
         <v>570000</v>
       </c>
       <c r="E54" t="s">
@@ -6039,7 +6054,7 @@
       <c r="C55" t="s">
         <v>32</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="2">
         <v>970000</v>
       </c>
       <c r="E55" t="s">
@@ -6068,7 +6083,7 @@
       <c r="C56" t="s">
         <v>181</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="2">
         <v>2498431</v>
       </c>
       <c r="E56" t="s">
@@ -6097,7 +6112,7 @@
       <c r="C57" t="s">
         <v>32</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="2">
         <v>730000</v>
       </c>
       <c r="E57" t="s">
@@ -6126,7 +6141,7 @@
       <c r="C58" t="s">
         <v>34</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="2">
         <v>2400000</v>
       </c>
       <c r="E58" t="s">
@@ -6155,7 +6170,7 @@
       <c r="C59" t="s">
         <v>189</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="2">
         <v>4750000</v>
       </c>
       <c r="E59" t="s">
@@ -6184,7 +6199,7 @@
       <c r="C60" t="s">
         <v>192</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="2">
         <v>2750000</v>
       </c>
       <c r="E60" t="s">
@@ -6213,7 +6228,7 @@
       <c r="C61" t="s">
         <v>195</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="2">
         <v>1901000</v>
       </c>
       <c r="E61" t="s">
@@ -6242,7 +6257,7 @@
       <c r="C62" t="s">
         <v>32</v>
       </c>
-      <c r="D62">
+      <c r="D62" s="2">
         <v>550000</v>
       </c>
       <c r="E62" t="s">
@@ -6271,7 +6286,7 @@
       <c r="C63" t="s">
         <v>32</v>
       </c>
-      <c r="D63">
+      <c r="D63" s="2">
         <v>730000</v>
       </c>
       <c r="E63" t="s">
@@ -6300,7 +6315,7 @@
       <c r="C64" t="s">
         <v>204</v>
       </c>
-      <c r="D64">
+      <c r="D64" s="2">
         <v>6700000</v>
       </c>
       <c r="E64" t="s">
@@ -6329,7 +6344,7 @@
       <c r="C65" t="s">
         <v>32</v>
       </c>
-      <c r="D65">
+      <c r="D65" s="2">
         <v>725000</v>
       </c>
       <c r="E65" t="s">
@@ -6358,7 +6373,7 @@
       <c r="C66" t="s">
         <v>209</v>
       </c>
-      <c r="D66">
+      <c r="D66" s="2">
         <v>1900000</v>
       </c>
       <c r="E66" t="s">
@@ -6387,7 +6402,7 @@
       <c r="C67" t="s">
         <v>214</v>
       </c>
-      <c r="D67">
+      <c r="D67" s="2">
         <v>1200000</v>
       </c>
       <c r="E67" t="s">
@@ -6416,7 +6431,7 @@
       <c r="C68" t="s">
         <v>32</v>
       </c>
-      <c r="D68">
+      <c r="D68" s="2">
         <v>970000</v>
       </c>
       <c r="E68" t="s">
@@ -6445,7 +6460,7 @@
       <c r="C69" t="s">
         <v>219</v>
       </c>
-      <c r="D69">
+      <c r="D69" s="2">
         <v>655000</v>
       </c>
       <c r="E69" t="s">
@@ -6474,7 +6489,7 @@
       <c r="C70" t="s">
         <v>222</v>
       </c>
-      <c r="D70">
+      <c r="D70" s="2">
         <v>1000000</v>
       </c>
       <c r="E70" t="s">
@@ -6503,7 +6518,7 @@
       <c r="C71" t="s">
         <v>108</v>
       </c>
-      <c r="D71">
+      <c r="D71" s="2">
         <v>3050000</v>
       </c>
       <c r="E71" t="s">
@@ -6532,7 +6547,7 @@
       <c r="C72" t="s">
         <v>32</v>
       </c>
-      <c r="D72">
+      <c r="D72" s="2">
         <v>771000</v>
       </c>
       <c r="E72" t="s">
@@ -6561,7 +6576,7 @@
       <c r="C73" t="s">
         <v>229</v>
       </c>
-      <c r="D73">
+      <c r="D73" s="2">
         <v>2305000</v>
       </c>
       <c r="E73" t="s">
@@ -6590,7 +6605,7 @@
       <c r="C74" t="s">
         <v>183</v>
       </c>
-      <c r="D74">
+      <c r="D74" s="2">
         <v>2100000</v>
       </c>
       <c r="E74" t="s">
@@ -6619,7 +6634,7 @@
       <c r="C75" t="s">
         <v>237</v>
       </c>
-      <c r="D75">
+      <c r="D75" s="2">
         <v>3250000</v>
       </c>
       <c r="E75" t="s">
@@ -6648,7 +6663,7 @@
       <c r="C76" t="s">
         <v>32</v>
       </c>
-      <c r="D76">
+      <c r="D76" s="2">
         <v>550000</v>
       </c>
       <c r="E76" t="s">
@@ -6677,7 +6692,7 @@
       <c r="C77" t="s">
         <v>32</v>
       </c>
-      <c r="D77">
+      <c r="D77" s="2">
         <v>1400000</v>
       </c>
       <c r="E77" t="s">
@@ -6706,7 +6721,7 @@
       <c r="C78" t="s">
         <v>244</v>
       </c>
-      <c r="D78">
+      <c r="D78" s="2">
         <v>1102000</v>
       </c>
       <c r="E78" t="s">
@@ -6735,7 +6750,7 @@
       <c r="C79" t="s">
         <v>32</v>
       </c>
-      <c r="D79">
+      <c r="D79" s="2">
         <v>570000</v>
       </c>
       <c r="E79" t="s">
@@ -6764,7 +6779,7 @@
       <c r="C80" t="s">
         <v>234</v>
       </c>
-      <c r="D80">
+      <c r="D80" s="2">
         <v>2900000</v>
       </c>
       <c r="E80" t="s">
@@ -6793,7 +6808,7 @@
       <c r="C81" t="s">
         <v>32</v>
       </c>
-      <c r="D81">
+      <c r="D81" s="2">
         <v>1000000</v>
       </c>
       <c r="E81" t="s">
@@ -6839,7 +6854,7 @@
       <c r="C83" t="s">
         <v>254</v>
       </c>
-      <c r="D83">
+      <c r="D83" s="2">
         <v>6700000</v>
       </c>
       <c r="E83" t="s">
@@ -6868,7 +6883,7 @@
       <c r="C84" t="s">
         <v>257</v>
       </c>
-      <c r="D84">
+      <c r="D84" s="2">
         <v>1500000</v>
       </c>
       <c r="E84" t="s">
@@ -6897,7 +6912,7 @@
       <c r="C85" t="s">
         <v>260</v>
       </c>
-      <c r="D85">
+      <c r="D85" s="2">
         <v>1200000</v>
       </c>
       <c r="E85" t="s">
@@ -6926,7 +6941,7 @@
       <c r="C86" t="s">
         <v>263</v>
       </c>
-      <c r="D86">
+      <c r="D86" s="2">
         <v>3000000</v>
       </c>
       <c r="E86" t="s">
@@ -6955,7 +6970,7 @@
       <c r="C87" t="s">
         <v>32</v>
       </c>
-      <c r="D87">
+      <c r="D87" s="2">
         <v>750000</v>
       </c>
       <c r="E87" t="s">
@@ -6984,7 +6999,7 @@
       <c r="C88" t="s">
         <v>268</v>
       </c>
-      <c r="D88">
+      <c r="D88" s="2">
         <v>4507000</v>
       </c>
       <c r="E88" t="s">
@@ -7013,7 +7028,7 @@
       <c r="C89" t="s">
         <v>13</v>
       </c>
-      <c r="D89">
+      <c r="D89" s="2">
         <v>9100000</v>
       </c>
       <c r="E89" t="s">
@@ -7042,7 +7057,7 @@
       <c r="C90" t="s">
         <v>272</v>
       </c>
-      <c r="D90">
+      <c r="D90" s="2">
         <v>1053000</v>
       </c>
       <c r="E90" t="s">
@@ -7071,7 +7086,7 @@
       <c r="C91" t="s">
         <v>41</v>
       </c>
-      <c r="D91">
+      <c r="D91" s="2">
         <v>1130000</v>
       </c>
       <c r="E91" t="s">
@@ -7100,7 +7115,7 @@
       <c r="C92" t="s">
         <v>279</v>
       </c>
-      <c r="D92">
+      <c r="D92" s="2">
         <v>3000000</v>
       </c>
       <c r="E92" t="s">
@@ -7129,7 +7144,7 @@
       <c r="C93" t="s">
         <v>282</v>
       </c>
-      <c r="D93">
+      <c r="D93" s="2">
         <v>1200000</v>
       </c>
       <c r="E93" t="s">
@@ -7158,7 +7173,7 @@
       <c r="C94" t="s">
         <v>219</v>
       </c>
-      <c r="D94">
+      <c r="D94" s="2">
         <v>550000</v>
       </c>
       <c r="E94" t="s">
@@ -7187,7 +7202,7 @@
       <c r="C95" t="s">
         <v>32</v>
       </c>
-      <c r="D95">
+      <c r="D95" s="2">
         <v>1370000</v>
       </c>
       <c r="E95" t="s">
@@ -7216,7 +7231,7 @@
       <c r="C96" t="s">
         <v>32</v>
       </c>
-      <c r="D96">
+      <c r="D96" s="2">
         <v>970000</v>
       </c>
       <c r="E96" t="s">
@@ -7245,7 +7260,7 @@
       <c r="C97" t="s">
         <v>293</v>
       </c>
-      <c r="D97">
+      <c r="D97" s="2">
         <v>655000</v>
       </c>
       <c r="E97" t="s">
@@ -7274,7 +7289,7 @@
       <c r="C98" t="s">
         <v>298</v>
       </c>
-      <c r="D98">
+      <c r="D98" s="2">
         <v>1120000</v>
       </c>
       <c r="E98" t="s">
@@ -7303,7 +7318,7 @@
       <c r="C99" t="s">
         <v>168</v>
       </c>
-      <c r="D99">
+      <c r="D99" s="2">
         <v>783000</v>
       </c>
       <c r="E99" t="s">
@@ -7332,7 +7347,7 @@
       <c r="C100" t="s">
         <v>295</v>
       </c>
-      <c r="D100">
+      <c r="D100" s="2">
         <v>3200000</v>
       </c>
       <c r="E100" t="s">
@@ -7361,7 +7376,7 @@
       <c r="C101" t="s">
         <v>293</v>
       </c>
-      <c r="D101">
+      <c r="D101" s="2">
         <v>673000</v>
       </c>
       <c r="E101" t="s">
@@ -7390,7 +7405,7 @@
       <c r="C102" t="s">
         <v>308</v>
       </c>
-      <c r="D102">
+      <c r="D102" s="2">
         <v>1230000</v>
       </c>
       <c r="E102" t="s">
@@ -7419,7 +7434,7 @@
       <c r="C103" t="s">
         <v>311</v>
       </c>
-      <c r="D103">
+      <c r="D103" s="2">
         <v>2600000</v>
       </c>
       <c r="E103" t="s">
@@ -7448,7 +7463,7 @@
       <c r="C104" t="s">
         <v>311</v>
       </c>
-      <c r="D104">
+      <c r="D104" s="2">
         <v>2450000</v>
       </c>
       <c r="E104" t="s">
@@ -7477,7 +7492,7 @@
       <c r="C105" t="s">
         <v>160</v>
       </c>
-      <c r="D105">
+      <c r="D105" s="2">
         <v>7500000</v>
       </c>
       <c r="E105" t="s">
@@ -7506,7 +7521,7 @@
       <c r="C106" t="s">
         <v>32</v>
       </c>
-      <c r="D106">
+      <c r="D106" s="2">
         <v>550000</v>
       </c>
       <c r="E106" t="s">
@@ -7535,7 +7550,7 @@
       <c r="C107" t="s">
         <v>319</v>
       </c>
-      <c r="D107">
+      <c r="D107" s="2">
         <v>698000</v>
       </c>
       <c r="E107" t="s">
@@ -7564,7 +7579,7 @@
       <c r="C108" t="s">
         <v>322</v>
       </c>
-      <c r="D108">
+      <c r="D108" s="2">
         <v>3200000</v>
       </c>
       <c r="E108" t="s">
@@ -7593,7 +7608,7 @@
       <c r="C109" t="s">
         <v>32</v>
       </c>
-      <c r="D109">
+      <c r="D109" s="2">
         <v>840000</v>
       </c>
       <c r="E109" t="s">
@@ -7622,7 +7637,7 @@
       <c r="C110" t="s">
         <v>327</v>
       </c>
-      <c r="D110">
+      <c r="D110" s="2">
         <v>2800000</v>
       </c>
       <c r="E110" t="s">
@@ -7651,7 +7666,7 @@
       <c r="C111" t="s">
         <v>330</v>
       </c>
-      <c r="D111">
+      <c r="D111" s="2">
         <v>6100000</v>
       </c>
       <c r="E111" t="s">
@@ -7680,7 +7695,7 @@
       <c r="C112" t="s">
         <v>29</v>
       </c>
-      <c r="D112">
+      <c r="D112" s="2">
         <v>2373000</v>
       </c>
       <c r="E112" t="s">
@@ -7709,7 +7724,7 @@
       <c r="C113" t="s">
         <v>32</v>
       </c>
-      <c r="D113">
+      <c r="D113" s="2">
         <v>550000</v>
       </c>
       <c r="E113" t="s">
@@ -7738,7 +7753,7 @@
       <c r="C114" t="s">
         <v>337</v>
       </c>
-      <c r="D114">
+      <c r="D114" s="2">
         <v>1424000</v>
       </c>
       <c r="E114" t="s">
@@ -7767,7 +7782,7 @@
       <c r="C115" t="s">
         <v>101</v>
       </c>
-      <c r="D115">
+      <c r="D115" s="2">
         <v>1400000</v>
       </c>
       <c r="E115" t="s">
@@ -7796,7 +7811,7 @@
       <c r="C116" t="s">
         <v>341</v>
       </c>
-      <c r="D116">
+      <c r="D116" s="2">
         <v>2650000</v>
       </c>
       <c r="E116" t="s">
@@ -7825,7 +7840,7 @@
       <c r="C117" t="s">
         <v>344</v>
       </c>
-      <c r="D117">
+      <c r="D117" s="2">
         <v>3700000</v>
       </c>
       <c r="E117" t="s">
@@ -7854,7 +7869,7 @@
       <c r="C118" t="s">
         <v>32</v>
       </c>
-      <c r="D118">
+      <c r="D118" s="2">
         <v>580000</v>
       </c>
       <c r="E118" t="s">
@@ -7883,7 +7898,7 @@
       <c r="C119" t="s">
         <v>99</v>
       </c>
-      <c r="D119">
+      <c r="D119" s="2">
         <v>1300000</v>
       </c>
       <c r="E119" t="s">
@@ -7912,7 +7927,7 @@
       <c r="C120" t="s">
         <v>32</v>
       </c>
-      <c r="D120">
+      <c r="D120" s="2">
         <v>550000</v>
       </c>
       <c r="E120" t="s">
@@ -7941,7 +7956,7 @@
       <c r="C121" t="s">
         <v>32</v>
       </c>
-      <c r="D121">
+      <c r="D121" s="2">
         <v>655000</v>
       </c>
       <c r="E121" t="s">
@@ -7970,7 +7985,7 @@
       <c r="C122" t="s">
         <v>32</v>
       </c>
-      <c r="D122">
+      <c r="D122" s="2">
         <v>1170000</v>
       </c>
       <c r="E122" t="s">
@@ -7999,7 +8014,7 @@
       <c r="C123" t="s">
         <v>219</v>
       </c>
-      <c r="D123">
+      <c r="D123" s="2">
         <v>580000</v>
       </c>
       <c r="E123" t="s">
@@ -8028,7 +8043,7 @@
       <c r="C124" t="s">
         <v>168</v>
       </c>
-      <c r="D124">
+      <c r="D124" s="2">
         <v>1350000</v>
       </c>
       <c r="E124" t="s">
@@ -8057,7 +8072,7 @@
       <c r="C125" t="s">
         <v>32</v>
       </c>
-      <c r="D125">
+      <c r="D125" s="2">
         <v>550000</v>
       </c>
       <c r="E125" t="s">
@@ -8086,7 +8101,7 @@
       <c r="C126" t="s">
         <v>350</v>
       </c>
-      <c r="D126">
+      <c r="D126" s="2">
         <v>1372000</v>
       </c>
       <c r="E126" t="s">
@@ -8115,7 +8130,7 @@
       <c r="C127" t="s">
         <v>311</v>
       </c>
-      <c r="D127">
+      <c r="D127" s="2">
         <v>2539000</v>
       </c>
       <c r="E127" t="s">
@@ -8144,7 +8159,7 @@
       <c r="C128" t="s">
         <v>274</v>
       </c>
-      <c r="D128">
+      <c r="D128" s="2">
         <v>2200000</v>
       </c>
       <c r="E128" t="s">
@@ -8173,7 +8188,7 @@
       <c r="C129" t="s">
         <v>32</v>
       </c>
-      <c r="D129">
+      <c r="D129" s="2">
         <v>825000</v>
       </c>
       <c r="E129" t="s">
@@ -8202,7 +8217,7 @@
       <c r="C130" t="s">
         <v>32</v>
       </c>
-      <c r="D130">
+      <c r="D130" s="2">
         <v>740000</v>
       </c>
       <c r="E130" t="s">
@@ -8231,7 +8246,7 @@
       <c r="C131" t="s">
         <v>32</v>
       </c>
-      <c r="D131">
+      <c r="D131" s="2">
         <v>780000</v>
       </c>
       <c r="E131" t="s">
@@ -8260,7 +8275,7 @@
       <c r="C132" t="s">
         <v>375</v>
       </c>
-      <c r="D132">
+      <c r="D132" s="2">
         <v>4300000</v>
       </c>
       <c r="E132" t="s">
@@ -8289,7 +8304,7 @@
       <c r="C133" t="s">
         <v>41</v>
       </c>
-      <c r="D133">
+      <c r="D133" s="2">
         <v>1475000</v>
       </c>
       <c r="E133" t="s">
@@ -8318,7 +8333,7 @@
       <c r="C134" t="s">
         <v>32</v>
       </c>
-      <c r="D134">
+      <c r="D134" s="2">
         <v>550000</v>
       </c>
       <c r="E134" t="s">
@@ -8347,7 +8362,7 @@
       <c r="C135" t="s">
         <v>382</v>
       </c>
-      <c r="D135">
+      <c r="D135" s="2">
         <v>637000</v>
       </c>
       <c r="E135" t="s">
@@ -8376,7 +8391,7 @@
       <c r="C136" t="s">
         <v>32</v>
       </c>
-      <c r="D136">
+      <c r="D136" s="2">
         <v>590000</v>
       </c>
       <c r="E136" t="s">
@@ -8405,7 +8420,7 @@
       <c r="C137" t="s">
         <v>387</v>
       </c>
-      <c r="D137">
+      <c r="D137" s="2">
         <v>1600000</v>
       </c>
       <c r="E137" t="s">
@@ -8434,7 +8449,7 @@
       <c r="C138" t="s">
         <v>94</v>
       </c>
-      <c r="D138">
+      <c r="D138" s="2">
         <v>904000</v>
       </c>
       <c r="E138" t="s">
@@ -8463,7 +8478,7 @@
       <c r="C139" t="s">
         <v>392</v>
       </c>
-      <c r="D139">
+      <c r="D139" s="2">
         <v>3800000</v>
       </c>
       <c r="E139" t="s">
@@ -8492,7 +8507,7 @@
       <c r="C140" t="s">
         <v>29</v>
       </c>
-      <c r="D140">
+      <c r="D140" s="2">
         <v>3500000</v>
       </c>
       <c r="E140" t="s">
@@ -8521,7 +8536,7 @@
       <c r="C141" t="s">
         <v>311</v>
       </c>
-      <c r="D141">
+      <c r="D141" s="2">
         <v>2600000</v>
       </c>
       <c r="E141" t="s">
@@ -8550,7 +8565,7 @@
       <c r="C142" t="s">
         <v>32</v>
       </c>
-      <c r="D142">
+      <c r="D142" s="2">
         <v>620000</v>
       </c>
       <c r="E142" t="s">
@@ -8579,7 +8594,7 @@
       <c r="C143" t="s">
         <v>32</v>
       </c>
-      <c r="D143">
+      <c r="D143" s="2">
         <v>550000</v>
       </c>
       <c r="E143" t="s">
@@ -8608,7 +8623,7 @@
       <c r="C144" t="s">
         <v>118</v>
       </c>
-      <c r="D144">
+      <c r="D144" s="2">
         <v>6000000</v>
       </c>
       <c r="E144" t="s">
@@ -8637,7 +8652,7 @@
       <c r="C145" t="s">
         <v>404</v>
       </c>
-      <c r="D145">
+      <c r="D145" s="2">
         <v>2200000</v>
       </c>
       <c r="E145" t="s">
@@ -8666,7 +8681,7 @@
       <c r="C146" t="s">
         <v>32</v>
       </c>
-      <c r="D146">
+      <c r="D146" s="2">
         <v>580000</v>
       </c>
       <c r="E146" t="s">
@@ -8695,7 +8710,7 @@
       <c r="C147" t="s">
         <v>32</v>
       </c>
-      <c r="D147">
+      <c r="D147" s="2">
         <v>758000</v>
       </c>
       <c r="E147" t="s">
@@ -8724,7 +8739,7 @@
       <c r="C148" t="s">
         <v>413</v>
       </c>
-      <c r="D148">
+      <c r="D148" s="2">
         <v>1670000</v>
       </c>
       <c r="E148" t="s">
@@ -8753,7 +8768,7 @@
       <c r="C149" t="s">
         <v>257</v>
       </c>
-      <c r="D149">
+      <c r="D149" s="2">
         <v>1346000</v>
       </c>
       <c r="E149" t="s">
@@ -8782,7 +8797,7 @@
       <c r="C150" t="s">
         <v>32</v>
       </c>
-      <c r="D150">
+      <c r="D150" s="2">
         <v>580000</v>
       </c>
       <c r="E150" t="s">
@@ -8811,7 +8826,7 @@
       <c r="C151" t="s">
         <v>420</v>
       </c>
-      <c r="D151">
+      <c r="D151" s="2">
         <v>1584000</v>
       </c>
       <c r="E151" t="s">
@@ -8840,7 +8855,7 @@
       <c r="C152" t="s">
         <v>272</v>
       </c>
-      <c r="D152">
+      <c r="D152" s="2">
         <v>1230000</v>
       </c>
       <c r="E152" t="s">
@@ -8869,7 +8884,7 @@
       <c r="C153" t="s">
         <v>32</v>
       </c>
-      <c r="D153">
+      <c r="D153" s="2">
         <v>750000</v>
       </c>
       <c r="E153" t="s">
@@ -8898,7 +8913,7 @@
       <c r="C154" t="s">
         <v>293</v>
       </c>
-      <c r="D154">
+      <c r="D154" s="2">
         <v>673000</v>
       </c>
       <c r="E154" t="s">
@@ -8927,7 +8942,7 @@
       <c r="C155" t="s">
         <v>32</v>
       </c>
-      <c r="D155">
+      <c r="D155" s="2">
         <v>660000</v>
       </c>
       <c r="E155" t="s">
@@ -8956,7 +8971,7 @@
       <c r="C156" t="s">
         <v>433</v>
       </c>
-      <c r="D156">
+      <c r="D156" s="2">
         <v>2400000</v>
       </c>
       <c r="E156" t="s">
@@ -8985,7 +9000,7 @@
       <c r="C157" t="s">
         <v>32</v>
       </c>
-      <c r="D157">
+      <c r="D157" s="2">
         <v>850000</v>
       </c>
       <c r="E157" t="s">
@@ -9014,7 +9029,7 @@
       <c r="C158" t="s">
         <v>293</v>
       </c>
-      <c r="D158">
+      <c r="D158" s="2">
         <v>783000</v>
       </c>
       <c r="E158" t="s">
@@ -9043,7 +9058,7 @@
       <c r="C159" t="s">
         <v>168</v>
       </c>
-      <c r="D159">
+      <c r="D159" s="2">
         <v>848000</v>
       </c>
       <c r="E159" t="s">
@@ -9072,7 +9087,7 @@
       <c r="C160" t="s">
         <v>442</v>
       </c>
-      <c r="D160">
+      <c r="D160" s="2">
         <v>1653000</v>
       </c>
       <c r="E160" t="s">
@@ -9101,7 +9116,7 @@
       <c r="C161" t="s">
         <v>29</v>
       </c>
-      <c r="D161">
+      <c r="D161" s="2">
         <v>3900000</v>
       </c>
       <c r="E161" t="s">
@@ -9130,7 +9145,7 @@
       <c r="C162" t="s">
         <v>211</v>
       </c>
-      <c r="D162">
+      <c r="D162" s="2">
         <v>3600000</v>
       </c>
       <c r="E162" t="s">
@@ -9159,7 +9174,7 @@
       <c r="C163" t="s">
         <v>219</v>
       </c>
-      <c r="D163">
+      <c r="D163" s="2">
         <v>745000</v>
       </c>
       <c r="E163" t="s">
@@ -9188,7 +9203,7 @@
       <c r="C164" t="s">
         <v>32</v>
       </c>
-      <c r="D164">
+      <c r="D164" s="2">
         <v>600000</v>
       </c>
       <c r="E164" t="s">
@@ -9217,7 +9232,7 @@
       <c r="C165" t="s">
         <v>32</v>
       </c>
-      <c r="D165">
+      <c r="D165" s="2">
         <v>570000</v>
       </c>
       <c r="E165" t="s">
@@ -9246,7 +9261,7 @@
       <c r="C166" t="s">
         <v>456</v>
       </c>
-      <c r="D166">
+      <c r="D166" s="2">
         <v>750000</v>
       </c>
       <c r="E166" t="s">
@@ -9275,7 +9290,7 @@
       <c r="C167" t="s">
         <v>32</v>
       </c>
-      <c r="D167">
+      <c r="D167" s="2">
         <v>790000</v>
       </c>
       <c r="E167" t="s">
@@ -9304,7 +9319,7 @@
       <c r="C168" t="s">
         <v>461</v>
       </c>
-      <c r="D168">
+      <c r="D168" s="2">
         <v>1050000</v>
       </c>
       <c r="E168" t="s">
@@ -9333,7 +9348,7 @@
       <c r="C169" t="s">
         <v>32</v>
       </c>
-      <c r="D169">
+      <c r="D169" s="2">
         <v>570000</v>
       </c>
       <c r="E169" t="s">
@@ -9362,7 +9377,7 @@
       <c r="C170" t="s">
         <v>272</v>
       </c>
-      <c r="D170">
+      <c r="D170" s="2">
         <v>1260000</v>
       </c>
       <c r="E170" t="s">
@@ -9391,7 +9406,7 @@
       <c r="C171" t="s">
         <v>468</v>
       </c>
-      <c r="D171">
+      <c r="D171" s="2">
         <v>1575000</v>
       </c>
       <c r="E171" t="s">
@@ -9420,7 +9435,7 @@
       <c r="C172" t="s">
         <v>471</v>
       </c>
-      <c r="D172">
+      <c r="D172" s="2">
         <v>930000</v>
       </c>
       <c r="E172" t="s">
@@ -9449,7 +9464,7 @@
       <c r="C173" t="s">
         <v>32</v>
       </c>
-      <c r="D173">
+      <c r="D173" s="2">
         <v>670000</v>
       </c>
       <c r="E173" t="s">
@@ -9478,7 +9493,7 @@
       <c r="C174" t="s">
         <v>32</v>
       </c>
-      <c r="D174">
+      <c r="D174" s="2">
         <v>650000</v>
       </c>
       <c r="E174" t="s">
@@ -9507,7 +9522,7 @@
       <c r="C175" t="s">
         <v>108</v>
       </c>
-      <c r="D175">
+      <c r="D175" s="2">
         <v>3509000</v>
       </c>
       <c r="E175" t="s">
@@ -9536,7 +9551,7 @@
       <c r="C176" t="s">
         <v>168</v>
       </c>
-      <c r="D176">
+      <c r="D176" s="2">
         <v>783000</v>
       </c>
       <c r="E176" t="s">
@@ -9565,7 +9580,7 @@
       <c r="C177" t="s">
         <v>406</v>
       </c>
-      <c r="D177">
+      <c r="D177" s="2">
         <v>3200000</v>
       </c>
       <c r="E177" t="s">
@@ -9594,7 +9609,7 @@
       <c r="C178" t="s">
         <v>298</v>
       </c>
-      <c r="D178">
+      <c r="D178" s="2">
         <v>1070000</v>
       </c>
       <c r="E178" t="s">
@@ -9623,7 +9638,7 @@
       <c r="C179" t="s">
         <v>32</v>
       </c>
-      <c r="D179">
+      <c r="D179" s="2">
         <v>700000</v>
       </c>
       <c r="E179" t="s">
@@ -9652,7 +9667,7 @@
       <c r="C180" t="s">
         <v>311</v>
       </c>
-      <c r="D180">
+      <c r="D180" s="2">
         <v>3000000</v>
       </c>
       <c r="E180" t="s">
@@ -9681,7 +9696,7 @@
       <c r="C181" t="s">
         <v>456</v>
       </c>
-      <c r="D181">
+      <c r="D181" s="2">
         <v>840000</v>
       </c>
       <c r="E181" t="s">
@@ -9710,7 +9725,7 @@
       <c r="C182" t="s">
         <v>41</v>
       </c>
-      <c r="D182">
+      <c r="D182" s="2">
         <v>1600000</v>
       </c>
       <c r="E182" t="s">
@@ -9739,7 +9754,7 @@
       <c r="C183" t="s">
         <v>32</v>
       </c>
-      <c r="D183">
+      <c r="D183" s="2">
         <v>550000</v>
       </c>
       <c r="E183" t="s">
@@ -9768,7 +9783,7 @@
       <c r="C184" t="s">
         <v>293</v>
       </c>
-      <c r="D184">
+      <c r="D184" s="2">
         <v>655000</v>
       </c>
       <c r="E184" t="s">
@@ -9797,7 +9812,7 @@
       <c r="C185" t="s">
         <v>32</v>
       </c>
-      <c r="D185">
+      <c r="D185" s="2">
         <v>630000</v>
       </c>
       <c r="E185" t="s">
@@ -9826,7 +9841,7 @@
       <c r="C186" t="s">
         <v>32</v>
       </c>
-      <c r="D186">
+      <c r="D186" s="2">
         <v>550000</v>
       </c>
       <c r="E186" t="s">
@@ -9855,7 +9870,7 @@
       <c r="C187" t="s">
         <v>32</v>
       </c>
-      <c r="D187">
+      <c r="D187" s="2">
         <v>640000</v>
       </c>
       <c r="E187" t="s">
@@ -9884,7 +9899,7 @@
       <c r="C188" t="s">
         <v>170</v>
       </c>
-      <c r="D188">
+      <c r="D188" s="2">
         <v>5600000</v>
       </c>
       <c r="E188" t="s">
@@ -9913,7 +9928,7 @@
       <c r="C189" t="s">
         <v>29</v>
       </c>
-      <c r="D189">
+      <c r="D189" s="2">
         <v>3450000</v>
       </c>
       <c r="E189" t="s">
@@ -9942,7 +9957,7 @@
       <c r="C190" t="s">
         <v>508</v>
       </c>
-      <c r="D190">
+      <c r="D190" s="2">
         <v>1417000</v>
       </c>
       <c r="E190" t="s">
@@ -9971,7 +9986,7 @@
       <c r="C191" t="s">
         <v>387</v>
       </c>
-      <c r="D191">
+      <c r="D191" s="2">
         <v>1105000</v>
       </c>
       <c r="E191" t="s">
@@ -10000,7 +10015,7 @@
       <c r="C192" t="s">
         <v>513</v>
       </c>
-      <c r="D192">
+      <c r="D192" s="2">
         <v>4300000</v>
       </c>
       <c r="E192" t="s">
@@ -10029,7 +10044,7 @@
       <c r="C193" t="s">
         <v>32</v>
       </c>
-      <c r="D193">
+      <c r="D193" s="2">
         <v>567000</v>
       </c>
       <c r="E193" t="s">
@@ -10058,7 +10073,7 @@
       <c r="C194" t="s">
         <v>387</v>
       </c>
-      <c r="D194">
+      <c r="D194" s="2">
         <v>2297000</v>
       </c>
       <c r="E194" t="s">
@@ -10087,7 +10102,7 @@
       <c r="C195" t="s">
         <v>520</v>
       </c>
-      <c r="D195">
+      <c r="D195" s="2">
         <v>3500000</v>
       </c>
       <c r="E195" t="s">
@@ -10116,7 +10131,7 @@
       <c r="C196" t="s">
         <v>99</v>
       </c>
-      <c r="D196">
+      <c r="D196" s="2">
         <v>950124</v>
       </c>
       <c r="E196" t="s">
@@ -10145,7 +10160,7 @@
       <c r="C197" t="s">
         <v>282</v>
       </c>
-      <c r="D197">
+      <c r="D197" s="2">
         <v>1200000</v>
       </c>
       <c r="E197" t="s">
@@ -10174,7 +10189,7 @@
       <c r="C198" t="s">
         <v>94</v>
       </c>
-      <c r="D198">
+      <c r="D198" s="2">
         <v>826000</v>
       </c>
       <c r="E198" t="s">
@@ -10203,7 +10218,7 @@
       <c r="C199" t="s">
         <v>32</v>
       </c>
-      <c r="D199">
+      <c r="D199" s="2">
         <v>550000</v>
       </c>
       <c r="E199" t="s">
@@ -10232,7 +10247,7 @@
       <c r="C200" t="s">
         <v>91</v>
       </c>
-      <c r="D200">
+      <c r="D200" s="2">
         <v>3637000</v>
       </c>
       <c r="E200" t="s">
@@ -10261,7 +10276,7 @@
       <c r="C201" t="s">
         <v>29</v>
       </c>
-      <c r="D201">
+      <c r="D201" s="2">
         <v>3400000</v>
       </c>
       <c r="E201" t="s">
@@ -10290,7 +10305,7 @@
       <c r="C202" t="s">
         <v>528</v>
       </c>
-      <c r="D202">
+      <c r="D202" s="2">
         <v>2715000</v>
       </c>
       <c r="E202" t="s">
@@ -10319,7 +10334,7 @@
       <c r="C203" t="s">
         <v>99</v>
       </c>
-      <c r="D203">
+      <c r="D203" s="2">
         <v>1614000</v>
       </c>
       <c r="E203" t="s">
@@ -10348,7 +10363,7 @@
       <c r="C204" t="s">
         <v>32</v>
       </c>
-      <c r="D204">
+      <c r="D204" s="2">
         <v>1005000</v>
       </c>
       <c r="E204" t="s">
@@ -10377,7 +10392,7 @@
       <c r="C205" t="s">
         <v>29</v>
       </c>
-      <c r="D205">
+      <c r="D205" s="2">
         <v>2500000</v>
       </c>
       <c r="E205" t="s">
@@ -10406,7 +10421,7 @@
       <c r="C206" t="s">
         <v>528</v>
       </c>
-      <c r="D206">
+      <c r="D206" s="2">
         <v>3000000</v>
       </c>
       <c r="E206" t="s">
@@ -10435,7 +10450,7 @@
       <c r="C207" t="s">
         <v>41</v>
       </c>
-      <c r="D207">
+      <c r="D207" s="2">
         <v>1330000</v>
       </c>
       <c r="E207" t="s">
@@ -10464,7 +10479,7 @@
       <c r="C208" t="s">
         <v>165</v>
       </c>
-      <c r="D208">
+      <c r="D208" s="2">
         <v>2000000</v>
       </c>
       <c r="E208" t="s">
@@ -10493,7 +10508,7 @@
       <c r="C209" t="s">
         <v>550</v>
       </c>
-      <c r="D209">
+      <c r="D209" s="2">
         <v>3700000</v>
       </c>
       <c r="E209" t="s">
@@ -10522,7 +10537,7 @@
       <c r="C210" t="s">
         <v>195</v>
       </c>
-      <c r="D210">
+      <c r="D210" s="2">
         <v>1958000</v>
       </c>
       <c r="E210" t="s">
@@ -10551,7 +10566,7 @@
       <c r="C211" t="s">
         <v>32</v>
       </c>
-      <c r="D211">
+      <c r="D211" s="2">
         <v>567000</v>
       </c>
       <c r="E211" t="s">
@@ -10580,7 +10595,7 @@
       <c r="C212" t="s">
         <v>298</v>
       </c>
-      <c r="D212">
+      <c r="D212" s="2">
         <v>1070000</v>
       </c>
       <c r="E212" t="s">
@@ -10609,7 +10624,7 @@
       <c r="C213" t="s">
         <v>337</v>
       </c>
-      <c r="D213">
+      <c r="D213" s="2">
         <v>1680000</v>
       </c>
       <c r="E213" t="s">
@@ -10638,7 +10653,7 @@
       <c r="C214" t="s">
         <v>32</v>
       </c>
-      <c r="D214">
+      <c r="D214" s="2">
         <v>1180000</v>
       </c>
       <c r="E214" t="s">
@@ -10667,7 +10682,7 @@
       <c r="C215" t="s">
         <v>94</v>
       </c>
-      <c r="D215">
+      <c r="D215" s="2">
         <v>825000</v>
       </c>
       <c r="E215" t="s">
@@ -10696,7 +10711,7 @@
       <c r="C216" t="s">
         <v>32</v>
       </c>
-      <c r="D216">
+      <c r="D216" s="2">
         <v>765000</v>
       </c>
       <c r="E216" t="s">
@@ -10725,7 +10740,7 @@
       <c r="C217" t="s">
         <v>168</v>
       </c>
-      <c r="D217">
+      <c r="D217" s="2">
         <v>1100000</v>
       </c>
       <c r="E217" t="s">
@@ -10754,7 +10769,7 @@
       <c r="C218" t="s">
         <v>387</v>
       </c>
-      <c r="D218">
+      <c r="D218" s="2">
         <v>1450000</v>
       </c>
       <c r="E218" t="s">
@@ -10783,7 +10798,7 @@
       <c r="C219" t="s">
         <v>573</v>
       </c>
-      <c r="D219">
+      <c r="D219" s="2">
         <v>2202500</v>
       </c>
       <c r="E219" t="s">
@@ -10812,7 +10827,7 @@
       <c r="C220" t="s">
         <v>32</v>
       </c>
-      <c r="D220">
+      <c r="D220" s="2">
         <v>550000</v>
       </c>
       <c r="E220" t="s">
@@ -10841,7 +10856,7 @@
       <c r="C221" t="s">
         <v>32</v>
       </c>
-      <c r="D221">
+      <c r="D221" s="2">
         <v>570000</v>
       </c>
       <c r="E221" t="s">
@@ -10870,7 +10885,7 @@
       <c r="C222" t="s">
         <v>219</v>
       </c>
-      <c r="D222">
+      <c r="D222" s="2">
         <v>550000</v>
       </c>
       <c r="E222" t="s">
@@ -10899,7 +10914,7 @@
       <c r="C223" t="s">
         <v>219</v>
       </c>
-      <c r="D223">
+      <c r="D223" s="2">
         <v>820000</v>
       </c>
       <c r="E223" t="s">
@@ -10928,7 +10943,7 @@
       <c r="C224" t="s">
         <v>584</v>
       </c>
-      <c r="D224">
+      <c r="D224" s="2">
         <v>980000</v>
       </c>
       <c r="E224" t="s">
@@ -10957,7 +10972,7 @@
       <c r="C225" t="s">
         <v>181</v>
       </c>
-      <c r="D225">
+      <c r="D225" s="2">
         <v>1600000</v>
       </c>
       <c r="E225" t="s">
@@ -10986,7 +11001,7 @@
       <c r="C226" t="s">
         <v>32</v>
       </c>
-      <c r="D226">
+      <c r="D226" s="2">
         <v>580000</v>
       </c>
       <c r="E226" t="s">
@@ -11015,7 +11030,7 @@
       <c r="C227" t="s">
         <v>32</v>
       </c>
-      <c r="D227">
+      <c r="D227" s="2">
         <v>605000</v>
       </c>
       <c r="E227" t="s">
@@ -11044,7 +11059,7 @@
       <c r="C228" t="s">
         <v>433</v>
       </c>
-      <c r="D228">
+      <c r="D228" s="2">
         <v>2300000</v>
       </c>
       <c r="E228" t="s">
@@ -11073,7 +11088,7 @@
       <c r="C229" t="s">
         <v>32</v>
       </c>
-      <c r="D229">
+      <c r="D229" s="2">
         <v>620000</v>
       </c>
       <c r="E229" t="s">
@@ -11102,7 +11117,7 @@
       <c r="C230" t="s">
         <v>99</v>
       </c>
-      <c r="D230">
+      <c r="D230" s="2">
         <v>1100000</v>
       </c>
       <c r="E230" t="s">
@@ -11131,7 +11146,7 @@
       <c r="C231" t="s">
         <v>298</v>
       </c>
-      <c r="D231">
+      <c r="D231" s="2">
         <v>1000000</v>
       </c>
       <c r="E231" t="s">
@@ -11160,7 +11175,7 @@
       <c r="C232" t="s">
         <v>219</v>
       </c>
-      <c r="D232">
+      <c r="D232" s="2">
         <v>775000</v>
       </c>
       <c r="E232" t="s">
@@ -11189,7 +11204,7 @@
       <c r="C233" t="s">
         <v>607</v>
       </c>
-      <c r="D233">
+      <c r="D233" s="2">
         <v>2255000</v>
       </c>
       <c r="E233" t="s">
@@ -11218,7 +11233,7 @@
       <c r="C234" t="s">
         <v>282</v>
       </c>
-      <c r="D234">
+      <c r="D234" s="2">
         <v>1100000</v>
       </c>
       <c r="E234" t="s">
@@ -11247,7 +11262,7 @@
       <c r="C235" t="s">
         <v>29</v>
       </c>
-      <c r="D235">
+      <c r="D235" s="2">
         <v>2900000</v>
       </c>
       <c r="E235" t="s">
@@ -11276,7 +11291,7 @@
       <c r="C236" t="s">
         <v>219</v>
       </c>
-      <c r="D236">
+      <c r="D236" s="2">
         <v>550000</v>
       </c>
       <c r="E236" t="s">
@@ -11305,7 +11320,7 @@
       <c r="C237" t="s">
         <v>32</v>
       </c>
-      <c r="D237">
+      <c r="D237" s="2">
         <v>1450000</v>
       </c>
       <c r="E237" t="s">
@@ -11334,7 +11349,7 @@
       <c r="C238" t="s">
         <v>413</v>
       </c>
-      <c r="D238">
+      <c r="D238" s="2">
         <v>1065000</v>
       </c>
       <c r="E238" t="s">
@@ -11363,7 +11378,7 @@
       <c r="C239" t="s">
         <v>32</v>
       </c>
-      <c r="D239">
+      <c r="D239" s="2">
         <v>610000</v>
       </c>
       <c r="E239" t="s">
@@ -11392,7 +11407,7 @@
       <c r="C240" t="s">
         <v>41</v>
       </c>
-      <c r="D240">
+      <c r="D240" s="2">
         <v>1127000</v>
       </c>
       <c r="E240" t="s">
@@ -11421,7 +11436,7 @@
       <c r="C241" t="s">
         <v>94</v>
       </c>
-      <c r="D241">
+      <c r="D241" s="2">
         <v>780000</v>
       </c>
       <c r="E241" t="s">
@@ -11450,7 +11465,7 @@
       <c r="C242" t="s">
         <v>32</v>
       </c>
-      <c r="D242">
+      <c r="D242" s="2">
         <v>670000</v>
       </c>
       <c r="E242" t="s">
@@ -11479,7 +11494,7 @@
       <c r="C243" t="s">
         <v>126</v>
       </c>
-      <c r="D243">
+      <c r="D243" s="2">
         <v>6738000</v>
       </c>
       <c r="E243" t="s">
@@ -11508,7 +11523,7 @@
       <c r="C244" t="s">
         <v>471</v>
       </c>
-      <c r="D244">
+      <c r="D244" s="2">
         <v>853000</v>
       </c>
       <c r="E244" t="s">
@@ -11537,7 +11552,7 @@
       <c r="C245" t="s">
         <v>293</v>
       </c>
-      <c r="D245">
+      <c r="D245" s="2">
         <v>740000</v>
       </c>
       <c r="E245" t="s">
@@ -11566,7 +11581,7 @@
       <c r="C246" t="s">
         <v>433</v>
       </c>
-      <c r="D246">
+      <c r="D246" s="2">
         <v>2700000</v>
       </c>
       <c r="E246" t="s">
@@ -11595,7 +11610,7 @@
       <c r="C247" t="s">
         <v>219</v>
       </c>
-      <c r="D247">
+      <c r="D247" s="2">
         <v>655000</v>
       </c>
       <c r="E247" t="s">
@@ -11624,7 +11639,7 @@
       <c r="C248" t="s">
         <v>637</v>
       </c>
-      <c r="D248">
+      <c r="D248" s="2">
         <v>1260000</v>
       </c>
       <c r="E248" t="s">
@@ -11653,7 +11668,7 @@
       <c r="C249" t="s">
         <v>32</v>
       </c>
-      <c r="D249">
+      <c r="D249" s="2">
         <v>580000</v>
       </c>
       <c r="E249" t="s">
@@ -11682,7 +11697,7 @@
       <c r="C250" t="s">
         <v>34</v>
       </c>
-      <c r="D250">
+      <c r="D250" s="2">
         <v>3000000</v>
       </c>
       <c r="E250" t="s">
@@ -11711,7 +11726,7 @@
       <c r="C251" t="s">
         <v>32</v>
       </c>
-      <c r="D251">
+      <c r="D251" s="2">
         <v>760000</v>
       </c>
       <c r="E251" t="s">
@@ -11740,7 +11755,7 @@
       <c r="C252" t="s">
         <v>41</v>
       </c>
-      <c r="D252">
+      <c r="D252" s="2">
         <v>1650000</v>
       </c>
       <c r="E252" t="s">
@@ -11769,7 +11784,7 @@
       <c r="C253" t="s">
         <v>94</v>
       </c>
-      <c r="D253">
+      <c r="D253" s="2">
         <v>655000</v>
       </c>
       <c r="E253" t="s">
@@ -11798,7 +11813,7 @@
       <c r="C254" t="s">
         <v>99</v>
       </c>
-      <c r="D254">
+      <c r="D254" s="2">
         <v>1100000</v>
       </c>
       <c r="E254" t="s">
@@ -11827,7 +11842,7 @@
       <c r="C255" t="s">
         <v>653</v>
       </c>
-      <c r="D255">
+      <c r="D255" s="2">
         <v>945000</v>
       </c>
       <c r="E255" t="s">
@@ -11856,7 +11871,7 @@
       <c r="C256" t="s">
         <v>32</v>
       </c>
-      <c r="D256">
+      <c r="D256" s="2">
         <v>590000</v>
       </c>
       <c r="E256" t="s">
@@ -11885,7 +11900,7 @@
       <c r="C257" t="s">
         <v>382</v>
       </c>
-      <c r="D257">
+      <c r="D257" s="2">
         <v>627000</v>
       </c>
       <c r="E257" t="s">
@@ -11914,7 +11929,7 @@
       <c r="C258" t="s">
         <v>305</v>
       </c>
-      <c r="D258">
+      <c r="D258" s="2">
         <v>2800000</v>
       </c>
       <c r="E258" t="s">
@@ -11943,7 +11958,7 @@
       <c r="C259" t="s">
         <v>413</v>
       </c>
-      <c r="D259">
+      <c r="D259" s="2">
         <v>1125000</v>
       </c>
       <c r="E259" t="s">
@@ -11972,7 +11987,7 @@
       <c r="C260" t="s">
         <v>32</v>
       </c>
-      <c r="D260">
+      <c r="D260" s="2">
         <v>800000</v>
       </c>
       <c r="E260" t="s">
@@ -12001,7 +12016,7 @@
       <c r="C261" t="s">
         <v>32</v>
       </c>
-      <c r="D261">
+      <c r="D261" s="2">
         <v>570000</v>
       </c>
       <c r="E261" t="s">
@@ -12030,7 +12045,7 @@
       <c r="C262" t="s">
         <v>94</v>
       </c>
-      <c r="D262">
+      <c r="D262" s="2">
         <v>719000</v>
       </c>
       <c r="E262" t="s">
@@ -12059,7 +12074,7 @@
       <c r="C263" t="s">
         <v>29</v>
       </c>
-      <c r="D263">
+      <c r="D263" s="2">
         <v>3100000</v>
       </c>
       <c r="E263" t="s">
@@ -12088,7 +12103,7 @@
       <c r="C264" t="s">
         <v>32</v>
       </c>
-      <c r="D264">
+      <c r="D264" s="2">
         <v>600000</v>
       </c>
       <c r="E264" t="s">
@@ -12117,7 +12132,7 @@
       <c r="C265" t="s">
         <v>675</v>
       </c>
-      <c r="D265">
+      <c r="D265" s="2">
         <v>1000000</v>
       </c>
       <c r="E265" t="s">
@@ -12146,7 +12161,7 @@
       <c r="C266" t="s">
         <v>32</v>
       </c>
-      <c r="D266">
+      <c r="D266" s="2">
         <v>550000</v>
       </c>
       <c r="E266" t="s">
@@ -12175,7 +12190,7 @@
       <c r="C267" t="s">
         <v>282</v>
       </c>
-      <c r="D267">
+      <c r="D267" s="2">
         <v>1200000</v>
       </c>
       <c r="E267" t="s">
@@ -12204,7 +12219,7 @@
       <c r="C268" t="s">
         <v>197</v>
       </c>
-      <c r="D268">
+      <c r="D268" s="2">
         <v>3274000</v>
       </c>
       <c r="E268" t="s">
@@ -12233,7 +12248,7 @@
       <c r="C269" t="s">
         <v>284</v>
       </c>
-      <c r="D269">
+      <c r="D269" s="2">
         <v>2150000</v>
       </c>
       <c r="E269" t="s">
@@ -12262,7 +12277,7 @@
       <c r="C270" t="s">
         <v>684</v>
       </c>
-      <c r="D270">
+      <c r="D270" s="2">
         <v>2100000</v>
       </c>
       <c r="E270" t="s">
@@ -12291,7 +12306,7 @@
       <c r="C271" t="s">
         <v>32</v>
       </c>
-      <c r="D271">
+      <c r="D271" s="2">
         <v>756000</v>
       </c>
       <c r="E271" t="s">
@@ -12320,7 +12335,7 @@
       <c r="C272" t="s">
         <v>32</v>
       </c>
-      <c r="D272">
+      <c r="D272" s="2">
         <v>572000</v>
       </c>
       <c r="E272" t="s">
@@ -12349,7 +12364,7 @@
       <c r="C273" t="s">
         <v>29</v>
       </c>
-      <c r="D273">
+      <c r="D273" s="2">
         <v>3100000</v>
       </c>
       <c r="E273" t="s">
@@ -12378,7 +12393,7 @@
       <c r="C274" t="s">
         <v>32</v>
       </c>
-      <c r="D274">
+      <c r="D274" s="2">
         <v>660000</v>
       </c>
       <c r="E274" t="s">
@@ -12407,7 +12422,7 @@
       <c r="C275" t="s">
         <v>695</v>
       </c>
-      <c r="D275">
+      <c r="D275" s="2">
         <v>1250000</v>
       </c>
       <c r="E275" t="s">
@@ -12436,7 +12451,7 @@
       <c r="C276" t="s">
         <v>298</v>
       </c>
-      <c r="D276">
+      <c r="D276" s="2">
         <v>1000000</v>
       </c>
       <c r="E276" t="s">
@@ -12465,7 +12480,7 @@
       <c r="C277" t="s">
         <v>32</v>
       </c>
-      <c r="D277">
+      <c r="D277" s="2">
         <v>775000</v>
       </c>
       <c r="E277" t="s">
@@ -12494,7 +12509,7 @@
       <c r="C278" t="s">
         <v>34</v>
       </c>
-      <c r="D278">
+      <c r="D278" s="2">
         <v>1750000</v>
       </c>
       <c r="E278" t="s">
@@ -12523,7 +12538,7 @@
       <c r="C279" t="s">
         <v>29</v>
       </c>
-      <c r="D279">
+      <c r="D279" s="2">
         <v>4600000</v>
       </c>
       <c r="E279" t="s">
@@ -12552,7 +12567,7 @@
       <c r="C280" t="s">
         <v>705</v>
       </c>
-      <c r="D280">
+      <c r="D280" s="2">
         <v>1300000</v>
       </c>
       <c r="E280" t="s">
@@ -12581,7 +12596,7 @@
       <c r="C281" t="s">
         <v>32</v>
       </c>
-      <c r="D281">
+      <c r="D281" s="2">
         <v>572000</v>
       </c>
       <c r="E281" t="s">
@@ -12610,7 +12625,7 @@
       <c r="C282" t="s">
         <v>32</v>
       </c>
-      <c r="D282">
+      <c r="D282" s="2">
         <v>1150000</v>
       </c>
       <c r="E282" t="s">
@@ -12639,7 +12654,7 @@
       <c r="C283" t="s">
         <v>712</v>
       </c>
-      <c r="D283">
+      <c r="D283" s="2">
         <v>1188000</v>
       </c>
       <c r="E283" t="s">
@@ -12668,7 +12683,7 @@
       <c r="C284" t="s">
         <v>279</v>
       </c>
-      <c r="D284">
+      <c r="D284" s="2">
         <v>1680000</v>
       </c>
       <c r="E284" t="s">
@@ -12697,7 +12712,7 @@
       <c r="C285" t="s">
         <v>263</v>
       </c>
-      <c r="D285">
+      <c r="D285" s="2">
         <v>1850000</v>
       </c>
       <c r="E285" t="s">
@@ -12726,7 +12741,7 @@
       <c r="C286" t="s">
         <v>41</v>
       </c>
-      <c r="D286">
+      <c r="D286" s="2">
         <v>1000000</v>
       </c>
       <c r="E286" t="s">
@@ -12755,7 +12770,7 @@
       <c r="C287" t="s">
         <v>99</v>
       </c>
-      <c r="D287">
+      <c r="D287" s="2">
         <v>950000</v>
       </c>
       <c r="E287" t="s">
@@ -12784,7 +12799,7 @@
       <c r="C288" t="s">
         <v>192</v>
       </c>
-      <c r="D288">
+      <c r="D288" s="2">
         <v>3650000</v>
       </c>
       <c r="E288" t="s">
@@ -12813,7 +12828,7 @@
       <c r="C289" t="s">
         <v>293</v>
       </c>
-      <c r="D289">
+      <c r="D289" s="2">
         <v>655000</v>
       </c>
       <c r="E289" t="s">
@@ -12842,7 +12857,7 @@
       <c r="C290" t="s">
         <v>32</v>
       </c>
-      <c r="D290">
+      <c r="D290" s="2">
         <v>600000</v>
       </c>
       <c r="E290" t="s">
@@ -12871,7 +12886,7 @@
       <c r="C291" t="s">
         <v>32</v>
       </c>
-      <c r="D291">
+      <c r="D291" s="2">
         <v>1200000</v>
       </c>
       <c r="E291" t="s">
@@ -12900,7 +12915,7 @@
       <c r="C292" t="s">
         <v>94</v>
       </c>
-      <c r="D292">
+      <c r="D292" s="2">
         <v>655000</v>
       </c>
       <c r="E292" t="s">
@@ -12929,7 +12944,7 @@
       <c r="C293" t="s">
         <v>121</v>
       </c>
-      <c r="D293">
+      <c r="D293" s="2">
         <v>1600000</v>
       </c>
       <c r="E293" t="s">
@@ -12958,7 +12973,7 @@
       <c r="C294" t="s">
         <v>653</v>
       </c>
-      <c r="D294">
+      <c r="D294" s="2">
         <v>1592000</v>
       </c>
       <c r="E294" t="s">
@@ -12987,7 +13002,7 @@
       <c r="C295" t="s">
         <v>29</v>
       </c>
-      <c r="D295">
+      <c r="D295" s="2">
         <v>2380000</v>
       </c>
       <c r="E295" t="s">
@@ -13016,7 +13031,7 @@
       <c r="C296" t="s">
         <v>293</v>
       </c>
-      <c r="D296">
+      <c r="D296" s="2">
         <v>750000</v>
       </c>
       <c r="E296" t="s">
@@ -13045,7 +13060,7 @@
       <c r="C297" t="s">
         <v>745</v>
       </c>
-      <c r="D297">
+      <c r="D297" s="2">
         <v>2500000</v>
       </c>
       <c r="E297" t="s">
@@ -13074,7 +13089,7 @@
       <c r="C298" t="s">
         <v>428</v>
       </c>
-      <c r="D298">
+      <c r="D298" s="2">
         <v>1300000</v>
       </c>
       <c r="E298" t="s">
@@ -13103,7 +13118,7 @@
       <c r="C299" t="s">
         <v>564</v>
       </c>
-      <c r="D299">
+      <c r="D299" s="2">
         <v>3300000</v>
       </c>
       <c r="E299" t="s">
@@ -13132,7 +13147,7 @@
       <c r="C300" t="s">
         <v>442</v>
       </c>
-      <c r="D300">
+      <c r="D300" s="2">
         <v>2200000</v>
       </c>
       <c r="E300" t="s">
@@ -13161,7 +13176,7 @@
       <c r="C301" t="s">
         <v>404</v>
       </c>
-      <c r="D301">
+      <c r="D301" s="2">
         <v>1608000</v>
       </c>
       <c r="E301" t="s">
@@ -13190,7 +13205,7 @@
       <c r="C302" t="s">
         <v>29</v>
       </c>
-      <c r="D302">
+      <c r="D302" s="2">
         <v>2900000</v>
       </c>
       <c r="E302" t="s">
@@ -13219,7 +13234,7 @@
       <c r="C303" t="s">
         <v>32</v>
       </c>
-      <c r="D303">
+      <c r="D303" s="2">
         <v>800000</v>
       </c>
       <c r="E303" t="s">
@@ -13248,7 +13263,7 @@
       <c r="C304" t="s">
         <v>32</v>
       </c>
-      <c r="D304">
+      <c r="D304" s="2">
         <v>740000</v>
       </c>
       <c r="E304" t="s">
@@ -13277,7 +13292,7 @@
       <c r="C305" t="s">
         <v>263</v>
       </c>
-      <c r="D305">
+      <c r="D305" s="2">
         <v>3300000</v>
       </c>
       <c r="E305" t="s">
@@ -13306,7 +13321,7 @@
       <c r="C306" t="s">
         <v>32</v>
       </c>
-      <c r="D306">
+      <c r="D306" s="2">
         <v>550000</v>
       </c>
       <c r="E306" t="s">
@@ -13335,7 +13350,7 @@
       <c r="C307" t="s">
         <v>337</v>
       </c>
-      <c r="D307">
+      <c r="D307" s="2">
         <v>2237000</v>
       </c>
       <c r="E307" t="s">
@@ -13364,7 +13379,7 @@
       <c r="C308" t="s">
         <v>766</v>
       </c>
-      <c r="D308">
+      <c r="D308" s="2">
         <v>950000</v>
       </c>
       <c r="E308" t="s">
@@ -13393,7 +13408,7 @@
       <c r="C309" t="s">
         <v>508</v>
       </c>
-      <c r="D309">
+      <c r="D309" s="2">
         <v>1210000</v>
       </c>
       <c r="E309" t="s">
@@ -13422,7 +13437,7 @@
       <c r="C310" t="s">
         <v>219</v>
       </c>
-      <c r="D310">
+      <c r="D310" s="2">
         <v>745000</v>
       </c>
       <c r="E310" t="s">
@@ -13451,7 +13466,7 @@
       <c r="C311" t="s">
         <v>32</v>
       </c>
-      <c r="D311">
+      <c r="D311" s="2">
         <v>640000</v>
       </c>
       <c r="E311" t="s">
@@ -13480,7 +13495,7 @@
       <c r="C312" t="s">
         <v>32</v>
       </c>
-      <c r="D312">
+      <c r="D312" s="2">
         <v>550000</v>
       </c>
       <c r="E312" t="s">
@@ -13509,7 +13524,7 @@
       <c r="C313" t="s">
         <v>456</v>
       </c>
-      <c r="D313">
+      <c r="D313" s="2">
         <v>750000</v>
       </c>
       <c r="E313" t="s">
@@ -13538,7 +13553,7 @@
       <c r="C314" t="s">
         <v>779</v>
       </c>
-      <c r="D314">
+      <c r="D314" s="2">
         <v>2897000</v>
       </c>
       <c r="E314" t="s">
@@ -13567,7 +13582,7 @@
       <c r="C315" t="s">
         <v>782</v>
       </c>
-      <c r="D315">
+      <c r="D315" s="2">
         <v>2000000</v>
       </c>
       <c r="E315" t="s">
@@ -13596,7 +13611,7 @@
       <c r="C316" t="s">
         <v>32</v>
       </c>
-      <c r="D316">
+      <c r="D316" s="2">
         <v>650000</v>
       </c>
       <c r="E316" t="s">
@@ -13625,7 +13640,7 @@
       <c r="C317" t="s">
         <v>787</v>
       </c>
-      <c r="D317">
+      <c r="D317" s="2">
         <v>892000</v>
       </c>
       <c r="E317" t="s">
@@ -13654,7 +13669,7 @@
       <c r="C318" t="s">
         <v>404</v>
       </c>
-      <c r="D318">
+      <c r="D318" s="2">
         <v>1155000</v>
       </c>
       <c r="E318" t="s">
@@ -13683,7 +13698,7 @@
       <c r="C319" t="s">
         <v>742</v>
       </c>
-      <c r="D319">
+      <c r="D319" s="2">
         <v>1150000</v>
       </c>
       <c r="E319" t="s">
@@ -13712,7 +13727,7 @@
       <c r="C320" t="s">
         <v>637</v>
       </c>
-      <c r="D320">
+      <c r="D320" s="2">
         <v>1105000</v>
       </c>
       <c r="E320" t="s">
@@ -13741,7 +13756,7 @@
       <c r="C321" t="s">
         <v>32</v>
       </c>
-      <c r="D321">
+      <c r="D321" s="2">
         <v>800000</v>
       </c>
       <c r="E321" t="s">
@@ -13770,7 +13785,7 @@
       <c r="C322" t="s">
         <v>99</v>
       </c>
-      <c r="D322">
+      <c r="D322" s="2">
         <v>1100000</v>
       </c>
       <c r="E322" t="s">
@@ -13799,7 +13814,7 @@
       <c r="C323" t="s">
         <v>637</v>
       </c>
-      <c r="D323">
+      <c r="D323" s="2">
         <v>1365000</v>
       </c>
       <c r="E323" t="s">
@@ -13828,7 +13843,7 @@
       <c r="C324" t="s">
         <v>32</v>
       </c>
-      <c r="D324">
+      <c r="D324" s="2">
         <v>550000</v>
       </c>
       <c r="E324" t="s">
@@ -13857,7 +13872,7 @@
       <c r="C325" t="s">
         <v>32</v>
       </c>
-      <c r="D325">
+      <c r="D325" s="2">
         <v>550000</v>
       </c>
       <c r="E325" t="s">
@@ -13886,7 +13901,7 @@
       <c r="C326" t="s">
         <v>94</v>
       </c>
-      <c r="D326">
+      <c r="D326" s="2">
         <v>680000</v>
       </c>
       <c r="E326" t="s">
@@ -13915,7 +13930,7 @@
       <c r="C327" t="s">
         <v>293</v>
       </c>
-      <c r="D327">
+      <c r="D327" s="2">
         <v>772000</v>
       </c>
       <c r="E327" t="s">
@@ -13944,7 +13959,7 @@
       <c r="C328" t="s">
         <v>94</v>
       </c>
-      <c r="D328">
+      <c r="D328" s="2">
         <v>655000</v>
       </c>
       <c r="E328" t="s">
@@ -13973,7 +13988,7 @@
       <c r="C329" t="s">
         <v>811</v>
       </c>
-      <c r="D329">
+      <c r="D329" s="2">
         <v>1005000</v>
       </c>
       <c r="E329" t="s">
@@ -14002,7 +14017,7 @@
       <c r="C330" t="s">
         <v>32</v>
       </c>
-      <c r="D330">
+      <c r="D330" s="2">
         <v>1200000</v>
       </c>
       <c r="E330" t="s">
@@ -14031,7 +14046,7 @@
       <c r="C331" t="s">
         <v>528</v>
       </c>
-      <c r="D331">
+      <c r="D331" s="2">
         <v>3433000</v>
       </c>
       <c r="E331" t="s">
@@ -14060,7 +14075,7 @@
       <c r="C332" t="s">
         <v>637</v>
       </c>
-      <c r="D332">
+      <c r="D332" s="2">
         <v>1000000</v>
       </c>
       <c r="E332" t="s">
@@ -14089,7 +14104,7 @@
       <c r="C333" t="s">
         <v>32</v>
       </c>
-      <c r="D333">
+      <c r="D333" s="2">
         <v>550000</v>
       </c>
       <c r="E333" t="s">
@@ -14118,7 +14133,7 @@
       <c r="C334" t="s">
         <v>821</v>
       </c>
-      <c r="D334">
+      <c r="D334" s="2">
         <v>900000</v>
       </c>
       <c r="E334" t="s">
@@ -14147,7 +14162,7 @@
       <c r="C335" t="s">
         <v>824</v>
       </c>
-      <c r="D335">
+      <c r="D335" s="2">
         <v>2998800</v>
       </c>
       <c r="E335" t="s">
@@ -14176,7 +14191,7 @@
       <c r="C336" t="s">
         <v>94</v>
       </c>
-      <c r="D336">
+      <c r="D336" s="2">
         <v>655000</v>
       </c>
       <c r="E336" t="s">
@@ -14205,7 +14220,7 @@
       <c r="C337" t="s">
         <v>32</v>
       </c>
-      <c r="D337">
+      <c r="D337" s="2">
         <v>842000</v>
       </c>
       <c r="E337" t="s">
@@ -14234,7 +14249,7 @@
       <c r="C338" t="s">
         <v>831</v>
       </c>
-      <c r="D338">
+      <c r="D338" s="2">
         <v>2506000</v>
       </c>
       <c r="E338" t="s">
@@ -14263,7 +14278,7 @@
       <c r="C339" t="s">
         <v>219</v>
       </c>
-      <c r="D339">
+      <c r="D339" s="2">
         <v>580000</v>
       </c>
       <c r="E339" t="s">
@@ -14292,7 +14307,7 @@
       <c r="C340" t="s">
         <v>99</v>
       </c>
-      <c r="D340">
+      <c r="D340" s="2">
         <v>1260000</v>
       </c>
       <c r="E340" t="s">
@@ -14321,7 +14336,7 @@
       <c r="C341" t="s">
         <v>32</v>
       </c>
-      <c r="D341">
+      <c r="D341" s="2">
         <v>630000</v>
       </c>
       <c r="E341" t="s">
@@ -14350,7 +14365,7 @@
       <c r="C342" t="s">
         <v>99</v>
       </c>
-      <c r="D342">
+      <c r="D342" s="2">
         <v>1200000</v>
       </c>
       <c r="E342" t="s">
@@ -14379,7 +14394,7 @@
       <c r="C343" t="s">
         <v>842</v>
       </c>
-      <c r="D343">
+      <c r="D343" s="2">
         <v>1995000</v>
       </c>
       <c r="E343" t="s">
@@ -14408,7 +14423,7 @@
       <c r="C344" t="s">
         <v>32</v>
       </c>
-      <c r="D344">
+      <c r="D344" s="2">
         <v>935000</v>
       </c>
       <c r="E344" t="s">
@@ -14437,7 +14452,7 @@
       <c r="C345" t="s">
         <v>433</v>
       </c>
-      <c r="D345">
+      <c r="D345" s="2">
         <v>1180000</v>
       </c>
       <c r="E345" t="s">
@@ -14466,7 +14481,7 @@
       <c r="C346" t="s">
         <v>849</v>
       </c>
-      <c r="D346">
+      <c r="D346" s="2">
         <v>1242000</v>
       </c>
       <c r="E346" t="s">
@@ -14495,7 +14510,7 @@
       <c r="C347" t="s">
         <v>219</v>
       </c>
-      <c r="D347">
+      <c r="D347" s="2">
         <v>625000</v>
       </c>
       <c r="E347" t="s">
@@ -14524,7 +14539,7 @@
       <c r="C348" t="s">
         <v>32</v>
       </c>
-      <c r="D348">
+      <c r="D348" s="2">
         <v>750000</v>
       </c>
       <c r="E348" t="s">
@@ -14553,7 +14568,7 @@
       <c r="C349" t="s">
         <v>856</v>
       </c>
-      <c r="D349">
+      <c r="D349" s="2">
         <v>798000</v>
       </c>
       <c r="E349" t="s">
@@ -14582,7 +14597,7 @@
       <c r="C350" t="s">
         <v>637</v>
       </c>
-      <c r="D350">
+      <c r="D350" s="2">
         <v>1500000</v>
       </c>
       <c r="E350" t="s">
@@ -14611,7 +14626,7 @@
       <c r="C351" t="s">
         <v>293</v>
       </c>
-      <c r="D351">
+      <c r="D351" s="2">
         <v>655000</v>
       </c>
       <c r="E351" t="s">
@@ -14640,7 +14655,7 @@
       <c r="C352" t="s">
         <v>863</v>
       </c>
-      <c r="D352">
+      <c r="D352" s="2">
         <v>1900000</v>
       </c>
       <c r="E352" t="s">
@@ -14669,7 +14684,7 @@
       <c r="C353" t="s">
         <v>866</v>
       </c>
-      <c r="D353">
+      <c r="D353" s="2">
         <v>3050000</v>
       </c>
       <c r="E353" t="s">
@@ -14698,7 +14713,7 @@
       <c r="C354" t="s">
         <v>869</v>
       </c>
-      <c r="D354">
+      <c r="D354" s="2">
         <v>1500000</v>
       </c>
       <c r="E354" t="s">
@@ -14727,7 +14742,7 @@
       <c r="C355" t="s">
         <v>637</v>
       </c>
-      <c r="D355">
+      <c r="D355" s="2">
         <v>1500000</v>
       </c>
       <c r="E355" t="s">
@@ -14756,7 +14771,7 @@
       <c r="C356" t="s">
         <v>442</v>
       </c>
-      <c r="D356">
+      <c r="D356" s="2">
         <v>1847000</v>
       </c>
       <c r="E356" t="s">
@@ -14785,7 +14800,7 @@
       <c r="C357" t="s">
         <v>876</v>
       </c>
-      <c r="D357">
+      <c r="D357" s="2">
         <v>1595000</v>
       </c>
       <c r="E357" t="s">
@@ -14814,7 +14829,7 @@
       <c r="C358" t="s">
         <v>32</v>
       </c>
-      <c r="D358">
+      <c r="D358" s="2">
         <v>550000</v>
       </c>
       <c r="E358" t="s">
@@ -14843,7 +14858,7 @@
       <c r="C359" t="s">
         <v>881</v>
       </c>
-      <c r="D359">
+      <c r="D359" s="2">
         <v>1150000</v>
       </c>
       <c r="E359" t="s">
@@ -14872,7 +14887,7 @@
       <c r="C360" t="s">
         <v>195</v>
       </c>
-      <c r="D360">
+      <c r="D360" s="2">
         <v>1800000</v>
       </c>
       <c r="E360" t="s">
@@ -14901,7 +14916,7 @@
       <c r="C361" t="s">
         <v>29</v>
       </c>
-      <c r="D361">
+      <c r="D361" s="2">
         <v>2900000</v>
       </c>
       <c r="E361" t="s">
@@ -14930,7 +14945,7 @@
       <c r="C362" t="s">
         <v>413</v>
       </c>
-      <c r="D362">
+      <c r="D362" s="2">
         <v>880000</v>
       </c>
       <c r="E362" t="s">
@@ -14959,7 +14974,7 @@
       <c r="C363" t="s">
         <v>263</v>
       </c>
-      <c r="D363">
+      <c r="D363" s="2">
         <v>1600000</v>
       </c>
       <c r="E363" t="s">
@@ -14988,7 +15003,7 @@
       <c r="C364" t="s">
         <v>32</v>
       </c>
-      <c r="D364">
+      <c r="D364" s="2">
         <v>750000</v>
       </c>
       <c r="E364" t="s">
@@ -15017,7 +15032,7 @@
       <c r="C365" t="s">
         <v>219</v>
       </c>
-      <c r="D365">
+      <c r="D365" s="2">
         <v>635000</v>
       </c>
       <c r="E365" t="s">
@@ -15046,7 +15061,7 @@
       <c r="C366" t="s">
         <v>896</v>
       </c>
-      <c r="D366">
+      <c r="D366" s="2">
         <v>2400000</v>
       </c>
       <c r="E366" t="s">
@@ -15075,7 +15090,7 @@
       <c r="C367" t="s">
         <v>637</v>
       </c>
-      <c r="D367">
+      <c r="D367" s="2">
         <v>1100000</v>
       </c>
       <c r="E367" t="s">
@@ -15104,7 +15119,7 @@
       <c r="C368" t="s">
         <v>41</v>
       </c>
-      <c r="D368">
+      <c r="D368" s="2">
         <v>1000000</v>
       </c>
       <c r="E368" t="s">
@@ -15133,7 +15148,7 @@
       <c r="C369" t="s">
         <v>637</v>
       </c>
-      <c r="D369">
+      <c r="D369" s="2">
         <v>1500000</v>
       </c>
       <c r="E369" t="s">
@@ -15162,7 +15177,7 @@
       <c r="C370" t="s">
         <v>607</v>
       </c>
-      <c r="D370">
+      <c r="D370" s="2">
         <v>964000</v>
       </c>
       <c r="E370" t="s">
@@ -15191,7 +15206,7 @@
       <c r="C371" t="s">
         <v>94</v>
       </c>
-      <c r="D371">
+      <c r="D371" s="2">
         <v>800000</v>
       </c>
       <c r="E371" t="s">
@@ -15220,7 +15235,7 @@
       <c r="C372" t="s">
         <v>637</v>
       </c>
-      <c r="D372">
+      <c r="D372" s="2">
         <v>1200000</v>
       </c>
       <c r="E372" t="s">
@@ -15249,7 +15264,7 @@
       <c r="C373" t="s">
         <v>168</v>
       </c>
-      <c r="D373">
+      <c r="D373" s="2">
         <v>770000</v>
       </c>
       <c r="E373" t="s">
@@ -15278,7 +15293,7 @@
       <c r="C374" t="s">
         <v>913</v>
       </c>
-      <c r="D374">
+      <c r="D374" s="2">
         <v>2600000</v>
       </c>
       <c r="E374" t="s">
@@ -15307,7 +15322,7 @@
       <c r="C375" t="s">
         <v>913</v>
       </c>
-      <c r="D375">
+      <c r="D375" s="2">
         <v>2000000</v>
       </c>
       <c r="E375" t="s">
@@ -15336,7 +15351,7 @@
       <c r="C376" t="s">
         <v>918</v>
       </c>
-      <c r="D376">
+      <c r="D376" s="2">
         <v>1350000</v>
       </c>
       <c r="E376" t="s">
@@ -15365,7 +15380,7 @@
       <c r="C377" t="s">
         <v>718</v>
       </c>
-      <c r="D377">
+      <c r="D377" s="2">
         <v>2500000</v>
       </c>
       <c r="E377" t="s">
@@ -15394,7 +15409,7 @@
       <c r="C378" t="s">
         <v>94</v>
       </c>
-      <c r="D378">
+      <c r="D378" s="2">
         <v>750000</v>
       </c>
       <c r="E378" t="s">
@@ -15423,7 +15438,7 @@
       <c r="C379" t="s">
         <v>926</v>
       </c>
-      <c r="D379">
+      <c r="D379" s="2">
         <v>1865000</v>
       </c>
       <c r="E379" t="s">
@@ -15452,7 +15467,7 @@
       <c r="C380" t="s">
         <v>32</v>
       </c>
-      <c r="D380">
+      <c r="D380" s="2">
         <v>660000</v>
       </c>
       <c r="E380" t="s">
@@ -15481,7 +15496,7 @@
       <c r="C381" t="s">
         <v>931</v>
       </c>
-      <c r="D381">
+      <c r="D381" s="2">
         <v>742278</v>
       </c>
       <c r="E381" t="s">
@@ -15510,7 +15525,7 @@
       <c r="C382" t="s">
         <v>468</v>
       </c>
-      <c r="D382">
+      <c r="D382" s="2">
         <v>1400000</v>
       </c>
       <c r="E382" t="s">
@@ -15539,7 +15554,7 @@
       <c r="C383" t="s">
         <v>32</v>
       </c>
-      <c r="D383">
+      <c r="D383" s="2">
         <v>825000</v>
       </c>
       <c r="E383" t="s">
@@ -15568,7 +15583,7 @@
       <c r="C384" t="s">
         <v>94</v>
       </c>
-      <c r="D384">
+      <c r="D384" s="2">
         <v>655000</v>
       </c>
       <c r="E384" t="s">
@@ -15597,7 +15612,7 @@
       <c r="C385" t="s">
         <v>94</v>
       </c>
-      <c r="D385">
+      <c r="D385" s="2">
         <v>750000</v>
       </c>
       <c r="E385" t="s">
@@ -15626,7 +15641,7 @@
       <c r="C386" t="s">
         <v>637</v>
       </c>
-      <c r="D386">
+      <c r="D386" s="2">
         <v>1099000</v>
       </c>
       <c r="E386" t="s">
@@ -15655,7 +15670,7 @@
       <c r="C387" t="s">
         <v>94</v>
       </c>
-      <c r="D387">
+      <c r="D387" s="2">
         <v>655000</v>
       </c>
       <c r="E387" t="s">
@@ -15684,7 +15699,7 @@
       <c r="C388" t="s">
         <v>637</v>
       </c>
-      <c r="D388">
+      <c r="D388" s="2">
         <v>1400000</v>
       </c>
       <c r="E388" t="s">
@@ -15713,7 +15728,7 @@
       <c r="C389" t="s">
         <v>653</v>
       </c>
-      <c r="D389">
+      <c r="D389" s="2">
         <v>960000</v>
       </c>
       <c r="E389" t="s">
@@ -15742,7 +15757,7 @@
       <c r="C390" t="s">
         <v>951</v>
       </c>
-      <c r="D390">
+      <c r="D390" s="2">
         <v>1060000</v>
       </c>
       <c r="E390" t="s">
@@ -15771,7 +15786,7 @@
       <c r="C391" t="s">
         <v>94</v>
       </c>
-      <c r="D391">
+      <c r="D391" s="2">
         <v>780000</v>
       </c>
       <c r="E391" t="s">
@@ -15800,7 +15815,7 @@
       <c r="C392" t="s">
         <v>956</v>
       </c>
-      <c r="D392">
+      <c r="D392" s="2">
         <v>848000</v>
       </c>
       <c r="E392" t="s">
@@ -15829,7 +15844,7 @@
       <c r="C393" t="s">
         <v>32</v>
       </c>
-      <c r="D393">
+      <c r="D393" s="2">
         <v>600000</v>
       </c>
       <c r="E393" t="s">
@@ -15858,7 +15873,7 @@
       <c r="C394" t="s">
         <v>32</v>
       </c>
-      <c r="D394">
+      <c r="D394" s="2">
         <v>550000</v>
       </c>
       <c r="E394" t="s">
@@ -15887,7 +15902,7 @@
       <c r="C395" t="s">
         <v>963</v>
       </c>
-      <c r="D395">
+      <c r="D395" s="2">
         <v>780000</v>
       </c>
       <c r="E395" t="s">
@@ -15916,7 +15931,7 @@
       <c r="C396" t="s">
         <v>32</v>
       </c>
-      <c r="D396">
+      <c r="D396" s="2">
         <v>775000</v>
       </c>
       <c r="E396" t="s">
@@ -15945,7 +15960,7 @@
       <c r="C397" t="s">
         <v>456</v>
       </c>
-      <c r="D397">
+      <c r="D397" s="2">
         <v>750000</v>
       </c>
       <c r="E397" t="s">
@@ -15974,7 +15989,7 @@
       <c r="C398" t="s">
         <v>970</v>
       </c>
-      <c r="D398">
+      <c r="D398" s="2">
         <v>800000</v>
       </c>
       <c r="E398" t="s">
@@ -16003,7 +16018,7 @@
       <c r="C399" t="s">
         <v>973</v>
       </c>
-      <c r="D399">
+      <c r="D399" s="2">
         <v>1766000</v>
       </c>
       <c r="E399" t="s">
@@ -16032,7 +16047,7 @@
       <c r="C400" t="s">
         <v>94</v>
       </c>
-      <c r="D400">
+      <c r="D400" s="2">
         <v>655000</v>
       </c>
       <c r="E400" t="s">
@@ -16061,7 +16076,7 @@
       <c r="C401" t="s">
         <v>637</v>
       </c>
-      <c r="D401">
+      <c r="D401" s="2">
         <v>922000</v>
       </c>
       <c r="E401" t="s">
@@ -16090,7 +16105,7 @@
       <c r="C402" t="s">
         <v>32</v>
       </c>
-      <c r="D402">
+      <c r="D402" s="2">
         <v>550000</v>
       </c>
       <c r="E402" t="s">
@@ -16119,7 +16134,7 @@
       <c r="C403" t="s">
         <v>219</v>
       </c>
-      <c r="D403">
+      <c r="D403" s="2">
         <v>570000</v>
       </c>
       <c r="E403" t="s">
@@ -16148,7 +16163,7 @@
       <c r="C404" t="s">
         <v>637</v>
       </c>
-      <c r="D404">
+      <c r="D404" s="2">
         <v>922000</v>
       </c>
       <c r="E404" t="s">
@@ -16177,7 +16192,7 @@
       <c r="C405" t="s">
         <v>293</v>
       </c>
-      <c r="D405">
+      <c r="D405" s="2">
         <v>655000</v>
       </c>
       <c r="E405" t="s">
@@ -16206,7 +16221,7 @@
       <c r="C406" t="s">
         <v>94</v>
       </c>
-      <c r="D406">
+      <c r="D406" s="2">
         <v>655000</v>
       </c>
       <c r="E406" t="s">
@@ -16235,7 +16250,7 @@
       <c r="C407" t="s">
         <v>990</v>
       </c>
-      <c r="D407">
+      <c r="D407" s="2">
         <v>2140000</v>
       </c>
       <c r="E407" t="s">
@@ -16264,7 +16279,7 @@
       <c r="C408" t="s">
         <v>195</v>
       </c>
-      <c r="D408">
+      <c r="D408" s="2">
         <v>1500000</v>
       </c>
       <c r="E408" t="s">
@@ -16293,7 +16308,7 @@
       <c r="C409" t="s">
         <v>94</v>
       </c>
-      <c r="D409">
+      <c r="D409" s="2">
         <v>673000</v>
       </c>
       <c r="E409" t="s">
@@ -16322,7 +16337,7 @@
       <c r="C410" t="s">
         <v>219</v>
       </c>
-      <c r="D410">
+      <c r="D410" s="2">
         <v>570000</v>
       </c>
       <c r="E410" t="s">
@@ -16351,7 +16366,7 @@
       <c r="C411" t="s">
         <v>999</v>
       </c>
-      <c r="D411">
+      <c r="D411" s="2">
         <v>1000000</v>
       </c>
       <c r="E411" t="s">
@@ -16380,7 +16395,7 @@
       <c r="C412" t="s">
         <v>94</v>
       </c>
-      <c r="D412">
+      <c r="D412" s="2">
         <v>655000</v>
       </c>
       <c r="E412" t="s">
@@ -16409,7 +16424,7 @@
       <c r="C413" t="s">
         <v>1004</v>
       </c>
-      <c r="D413">
+      <c r="D413" s="2">
         <v>825000</v>
       </c>
       <c r="E413" t="s">
@@ -16438,7 +16453,7 @@
       <c r="C414" t="s">
         <v>32</v>
       </c>
-      <c r="D414">
+      <c r="D414" s="2">
         <v>620000</v>
       </c>
       <c r="E414" t="s">
@@ -16467,7 +16482,7 @@
       <c r="C415" t="s">
         <v>219</v>
       </c>
-      <c r="D415">
+      <c r="D415" s="2">
         <v>570000</v>
       </c>
       <c r="E415" t="s">
@@ -16496,7 +16511,7 @@
       <c r="C416" t="s">
         <v>94</v>
       </c>
-      <c r="D416">
+      <c r="D416" s="2">
         <v>720000</v>
       </c>
       <c r="E416" t="s">
@@ -16525,7 +16540,7 @@
       <c r="C417" t="s">
         <v>94</v>
       </c>
-      <c r="D417">
+      <c r="D417" s="2">
         <v>655000</v>
       </c>
       <c r="E417" t="s">
@@ -16554,7 +16569,7 @@
       <c r="C418" t="s">
         <v>94</v>
       </c>
-      <c r="D418">
+      <c r="D418" s="2">
         <v>720000</v>
       </c>
       <c r="E418" t="s">
@@ -16583,7 +16598,7 @@
       <c r="C419" t="s">
         <v>32</v>
       </c>
-      <c r="D419">
+      <c r="D419" s="2">
         <v>609000</v>
       </c>
       <c r="E419" t="s">
@@ -16612,7 +16627,7 @@
       <c r="C420" t="s">
         <v>219</v>
       </c>
-      <c r="D420">
+      <c r="D420" s="2">
         <v>570000</v>
       </c>
       <c r="E420" t="s">
@@ -16641,7 +16656,7 @@
       <c r="C421" t="s">
         <v>263</v>
       </c>
-      <c r="D421">
+      <c r="D421" s="2">
         <v>1600000</v>
       </c>
       <c r="E421" t="s">
@@ -16670,7 +16685,7 @@
       <c r="C422" t="s">
         <v>456</v>
       </c>
-      <c r="D422">
+      <c r="D422" s="2">
         <v>820000</v>
       </c>
       <c r="E422" t="s">
@@ -16699,7 +16714,7 @@
       <c r="C423" t="s">
         <v>32</v>
       </c>
-      <c r="D423">
+      <c r="D423" s="2">
         <v>680000</v>
       </c>
       <c r="E423" t="s">
@@ -16728,7 +16743,7 @@
       <c r="C424" t="s">
         <v>32</v>
       </c>
-      <c r="D424">
+      <c r="D424" s="2">
         <v>550000</v>
       </c>
       <c r="E424" t="s">
@@ -16757,7 +16772,7 @@
       <c r="C425" t="s">
         <v>41</v>
       </c>
-      <c r="D425">
+      <c r="D425" s="2">
         <v>1100000</v>
       </c>
       <c r="E425" t="s">
@@ -16786,7 +16801,7 @@
       <c r="C426" t="s">
         <v>219</v>
       </c>
-      <c r="D426">
+      <c r="D426" s="2">
         <v>570000</v>
       </c>
       <c r="E426" t="s">
@@ -16815,7 +16830,7 @@
       <c r="C427" t="s">
         <v>94</v>
       </c>
-      <c r="D427">
+      <c r="D427" s="2">
         <v>750000</v>
       </c>
       <c r="E427" t="s">
@@ -16844,7 +16859,7 @@
       <c r="C428" t="s">
         <v>637</v>
       </c>
-      <c r="D428">
+      <c r="D428" s="2">
         <v>922000</v>
       </c>
       <c r="E428" t="s">
@@ -16873,7 +16888,7 @@
       <c r="C429" t="s">
         <v>94</v>
       </c>
-      <c r="D429">
+      <c r="D429" s="2">
         <v>655000</v>
       </c>
       <c r="E429" t="s">
@@ -16902,7 +16917,7 @@
       <c r="C430" t="s">
         <v>1039</v>
       </c>
-      <c r="D430">
+      <c r="D430" s="2">
         <v>849000</v>
       </c>
       <c r="E430" t="s">
@@ -16931,7 +16946,7 @@
       <c r="C431" t="s">
         <v>94</v>
       </c>
-      <c r="D431">
+      <c r="D431" s="2">
         <v>655000</v>
       </c>
       <c r="E431" t="s">
@@ -16960,7 +16975,7 @@
       <c r="C432" t="s">
         <v>918</v>
       </c>
-      <c r="D432">
+      <c r="D432" s="2">
         <v>849000</v>
       </c>
       <c r="E432" t="s">
@@ -16989,7 +17004,7 @@
       <c r="C433" t="s">
         <v>219</v>
       </c>
-      <c r="D433">
+      <c r="D433" s="2">
         <v>600000</v>
       </c>
       <c r="E433" t="s">
@@ -17018,7 +17033,7 @@
       <c r="C434" t="s">
         <v>94</v>
       </c>
-      <c r="D434">
+      <c r="D434" s="2">
         <v>720000</v>
       </c>
       <c r="E434" t="s">
@@ -17047,7 +17062,7 @@
       <c r="C435" t="s">
         <v>293</v>
       </c>
-      <c r="D435">
+      <c r="D435" s="2">
         <v>673000</v>
       </c>
       <c r="E435" t="s">
@@ -17076,7 +17091,7 @@
       <c r="C436" t="s">
         <v>168</v>
       </c>
-      <c r="D436">
+      <c r="D436" s="2">
         <v>783000</v>
       </c>
       <c r="E436" t="s">
@@ -17105,7 +17120,7 @@
       <c r="C437" t="s">
         <v>1004</v>
       </c>
-      <c r="D437">
+      <c r="D437" s="2">
         <v>825000</v>
       </c>
       <c r="E437" t="s">
@@ -17134,7 +17149,7 @@
       <c r="C438" t="s">
         <v>32</v>
       </c>
-      <c r="D438">
+      <c r="D438" s="2">
         <v>588000</v>
       </c>
       <c r="E438" t="s">
@@ -17163,7 +17178,7 @@
       <c r="C439" t="s">
         <v>219</v>
       </c>
-      <c r="D439">
+      <c r="D439" s="2">
         <v>740000</v>
       </c>
       <c r="E439" t="s">
@@ -17192,7 +17207,7 @@
       <c r="C440" t="s">
         <v>163</v>
       </c>
-      <c r="D440">
+      <c r="D440" s="2">
         <v>600000</v>
       </c>
       <c r="E440" t="s">
@@ -17221,7 +17236,7 @@
       <c r="C441" t="s">
         <v>913</v>
       </c>
-      <c r="D441">
+      <c r="D441" s="2">
         <v>982000</v>
       </c>
       <c r="E441" t="s">
@@ -17250,7 +17265,7 @@
       <c r="C442" t="s">
         <v>94</v>
       </c>
-      <c r="D442">
+      <c r="D442" s="2">
         <v>655000</v>
       </c>
       <c r="E442" t="s">
@@ -17279,7 +17294,7 @@
       <c r="C443" t="s">
         <v>32</v>
       </c>
-      <c r="D443">
+      <c r="D443" s="2">
         <v>550000</v>
       </c>
       <c r="E443" t="s">
@@ -17308,7 +17323,7 @@
       <c r="C444" t="s">
         <v>94</v>
       </c>
-      <c r="D444">
+      <c r="D444" s="2">
         <v>655000</v>
       </c>
       <c r="E444" t="s">
@@ -17337,7 +17352,7 @@
       <c r="C445" t="s">
         <v>1070</v>
       </c>
-      <c r="D445">
+      <c r="D445" s="2">
         <v>972000</v>
       </c>
       <c r="E445" t="s">
@@ -17366,7 +17381,7 @@
       <c r="C446" t="s">
         <v>32</v>
       </c>
-      <c r="D446">
+      <c r="D446" s="2">
         <v>595000</v>
       </c>
       <c r="E446" t="s">
@@ -17395,7 +17410,7 @@
       <c r="C447" t="s">
         <v>1070</v>
       </c>
-      <c r="D447">
+      <c r="D447" s="2">
         <v>1250000</v>
       </c>
       <c r="E447" t="s">
@@ -17424,7 +17439,7 @@
       <c r="C448" t="s">
         <v>456</v>
       </c>
-      <c r="D448">
+      <c r="D448" s="2">
         <v>750000</v>
       </c>
       <c r="E448" t="s">
@@ -17453,7 +17468,7 @@
       <c r="C449" t="s">
         <v>32</v>
       </c>
-      <c r="D449">
+      <c r="D449" s="2">
         <v>570000</v>
       </c>
       <c r="E449" t="s">
@@ -17482,7 +17497,7 @@
       <c r="C450" t="s">
         <v>94</v>
       </c>
-      <c r="D450">
+      <c r="D450" s="2">
         <v>655000</v>
       </c>
       <c r="E450" t="s">
@@ -17511,7 +17526,7 @@
       <c r="C451" t="s">
         <v>32</v>
       </c>
-      <c r="D451">
+      <c r="D451" s="2">
         <v>550000</v>
       </c>
       <c r="E451" t="s">
@@ -17540,7 +17555,7 @@
       <c r="C452" t="s">
         <v>94</v>
       </c>
-      <c r="D452">
+      <c r="D452" s="2">
         <v>655000</v>
       </c>
       <c r="E452" t="s">
@@ -17569,7 +17584,7 @@
       <c r="C453" t="s">
         <v>293</v>
       </c>
-      <c r="D453">
+      <c r="D453" s="2">
         <v>655000</v>
       </c>
       <c r="E453" t="s">
@@ -17598,7 +17613,7 @@
       <c r="C454" t="s">
         <v>32</v>
       </c>
-      <c r="D454">
+      <c r="D454" s="2">
         <v>630000</v>
       </c>
       <c r="E454" t="s">
@@ -17627,7 +17642,7 @@
       <c r="C455" t="s">
         <v>94</v>
       </c>
-      <c r="D455">
+      <c r="D455" s="2">
         <v>655000</v>
       </c>
       <c r="E455" t="s">
@@ -17656,7 +17671,7 @@
       <c r="C456" t="s">
         <v>94</v>
       </c>
-      <c r="D456">
+      <c r="D456" s="2">
         <v>720000</v>
       </c>
       <c r="E456" t="s">
@@ -17685,7 +17700,7 @@
       <c r="C457" t="s">
         <v>94</v>
       </c>
-      <c r="D457">
+      <c r="D457" s="2">
         <v>655000</v>
       </c>
       <c r="E457" t="s">
@@ -17714,7 +17729,7 @@
       <c r="C458" t="s">
         <v>94</v>
       </c>
-      <c r="D458">
+      <c r="D458" s="2">
         <v>673000</v>
       </c>
       <c r="E458" t="s">
@@ -17743,7 +17758,7 @@
       <c r="C459" t="s">
         <v>94</v>
       </c>
-      <c r="D459">
+      <c r="D459" s="2">
         <v>655000</v>
       </c>
       <c r="E459" t="s">
@@ -17772,7 +17787,7 @@
       <c r="C460" t="s">
         <v>94</v>
       </c>
-      <c r="D460">
+      <c r="D460" s="2">
         <v>630000</v>
       </c>
       <c r="E460" t="s">
@@ -17801,7 +17816,7 @@
       <c r="C461" t="s">
         <v>32</v>
       </c>
-      <c r="D461">
+      <c r="D461" s="2">
         <v>600000</v>
       </c>
       <c r="E461" t="s">
@@ -17830,7 +17845,7 @@
       <c r="C462" t="s">
         <v>382</v>
       </c>
-      <c r="D462">
+      <c r="D462" s="2">
         <v>550000</v>
       </c>
       <c r="E462" t="s">
@@ -17859,7 +17874,7 @@
       <c r="C463" t="s">
         <v>94</v>
       </c>
-      <c r="D463">
+      <c r="D463" s="2">
         <v>655000</v>
       </c>
       <c r="E463" t="s">
@@ -17888,7 +17903,7 @@
       <c r="C464" t="s">
         <v>219</v>
       </c>
-      <c r="D464">
+      <c r="D464" s="2">
         <v>580000</v>
       </c>
       <c r="E464" t="s">
@@ -17917,7 +17932,7 @@
       <c r="C465" t="s">
         <v>94</v>
       </c>
-      <c r="D465">
+      <c r="D465" s="2">
         <v>655000</v>
       </c>
       <c r="E465" t="s">
@@ -17946,7 +17961,7 @@
       <c r="C466" t="s">
         <v>382</v>
       </c>
-      <c r="D466">
+      <c r="D466" s="2">
         <v>550000</v>
       </c>
       <c r="E466" t="s">
@@ -17975,7 +17990,7 @@
       <c r="C467" t="s">
         <v>32</v>
       </c>
-      <c r="D467">
+      <c r="D467" s="2">
         <v>925000</v>
       </c>
       <c r="E467" t="s">
@@ -18004,7 +18019,7 @@
       <c r="C468" t="s">
         <v>41</v>
       </c>
-      <c r="D468">
+      <c r="D468" s="2">
         <v>1203000</v>
       </c>
       <c r="E468" t="s">
@@ -18033,7 +18048,7 @@
       <c r="C469" t="s">
         <v>849</v>
       </c>
-      <c r="D469">
+      <c r="D469" s="2">
         <v>1244000</v>
       </c>
       <c r="E469" t="s">
@@ -18062,7 +18077,7 @@
       <c r="C470" t="s">
         <v>168</v>
       </c>
-      <c r="D470">
+      <c r="D470" s="2">
         <v>1540000</v>
       </c>
       <c r="E470" t="s">
@@ -18091,7 +18106,7 @@
       <c r="C471" t="s">
         <v>32</v>
       </c>
-      <c r="D471">
+      <c r="D471" s="2">
         <v>550000</v>
       </c>
       <c r="E471" t="s">
@@ -18120,7 +18135,7 @@
       <c r="C472" t="s">
         <v>32</v>
       </c>
-      <c r="D472">
+      <c r="D472" s="2">
         <v>550000</v>
       </c>
       <c r="E472" t="s">
@@ -18149,7 +18164,7 @@
       <c r="C473" t="s">
         <v>219</v>
       </c>
-      <c r="D473">
+      <c r="D473" s="2">
         <v>740000</v>
       </c>
       <c r="E473" t="s">
@@ -18178,7 +18193,7 @@
       <c r="C474" t="s">
         <v>1131</v>
       </c>
-      <c r="D474">
+      <c r="D474" s="2">
         <v>3150000</v>
       </c>
       <c r="E474" t="s">
@@ -18207,7 +18222,7 @@
       <c r="C475" t="s">
         <v>32</v>
       </c>
-      <c r="D475">
+      <c r="D475" s="2">
         <v>710000</v>
       </c>
       <c r="E475" t="s">
@@ -18236,7 +18251,7 @@
       <c r="C476" t="s">
         <v>41</v>
       </c>
-      <c r="D476">
+      <c r="D476" s="2">
         <v>1450000</v>
       </c>
       <c r="E476" t="s">
@@ -18265,7 +18280,7 @@
       <c r="C477" t="s">
         <v>96</v>
       </c>
-      <c r="D477">
+      <c r="D477" s="2">
         <v>2750000</v>
       </c>
       <c r="E477" t="s">
@@ -18294,7 +18309,7 @@
       <c r="C478" t="s">
         <v>55</v>
       </c>
-      <c r="D478">
+      <c r="D478" s="2">
         <v>567000</v>
       </c>
       <c r="E478" t="s">
@@ -18323,7 +18338,7 @@
       <c r="C479" t="s">
         <v>195</v>
       </c>
-      <c r="D479">
+      <c r="D479" s="2">
         <v>1239000</v>
       </c>
       <c r="E479" t="s">
@@ -18352,7 +18367,7 @@
       <c r="C480" t="s">
         <v>94</v>
       </c>
-      <c r="D480">
+      <c r="D480" s="2">
         <v>720000</v>
       </c>
       <c r="E480" t="s">
@@ -18381,7 +18396,7 @@
       <c r="C481" t="s">
         <v>99</v>
       </c>
-      <c r="D481">
+      <c r="D481" s="2">
         <v>1500000</v>
       </c>
       <c r="E481" t="s">
@@ -18410,7 +18425,7 @@
       <c r="C482" t="s">
         <v>1146</v>
       </c>
-      <c r="D482">
+      <c r="D482" s="2">
         <v>2925000</v>
       </c>
       <c r="E482" t="s">
@@ -18439,7 +18454,7 @@
       <c r="C483" t="s">
         <v>41</v>
       </c>
-      <c r="D483">
+      <c r="D483" s="2">
         <v>1386000</v>
       </c>
       <c r="E483" t="s">
@@ -18468,7 +18483,7 @@
       <c r="C484" t="s">
         <v>1151</v>
       </c>
-      <c r="D484">
+      <c r="D484" s="2">
         <v>3270000</v>
       </c>
       <c r="E484" t="s">
@@ -18497,7 +18512,7 @@
       <c r="C485" t="s">
         <v>413</v>
       </c>
-      <c r="D485">
+      <c r="D485" s="2">
         <v>2030000</v>
       </c>
       <c r="E485" t="s">
@@ -18526,7 +18541,7 @@
       <c r="C486" t="s">
         <v>32</v>
       </c>
-      <c r="D486">
+      <c r="D486" s="2">
         <v>780000</v>
       </c>
       <c r="E486" t="s">
@@ -18555,7 +18570,7 @@
       <c r="C487" t="s">
         <v>41</v>
       </c>
-      <c r="D487">
+      <c r="D487" s="2">
         <v>1075000</v>
       </c>
       <c r="E487" t="s">
@@ -18584,7 +18599,7 @@
       <c r="C488" t="s">
         <v>32</v>
       </c>
-      <c r="D488">
+      <c r="D488" s="2">
         <v>580000</v>
       </c>
       <c r="E488" t="s">
@@ -18613,7 +18628,7 @@
       <c r="C489" t="s">
         <v>32</v>
       </c>
-      <c r="D489">
+      <c r="D489" s="2">
         <v>580000</v>
       </c>
       <c r="E489" t="s">
@@ -18642,7 +18657,7 @@
       <c r="C490" t="s">
         <v>32</v>
       </c>
-      <c r="D490">
+      <c r="D490" s="2">
         <v>550000</v>
       </c>
       <c r="E490" t="s">
@@ -18671,7 +18686,7 @@
       <c r="C491" t="s">
         <v>219</v>
       </c>
-      <c r="D491">
+      <c r="D491" s="2">
         <v>735000</v>
       </c>
       <c r="E491" t="s">
@@ -18700,7 +18715,7 @@
       <c r="C492" t="s">
         <v>34</v>
       </c>
-      <c r="D492">
+      <c r="D492" s="2">
         <v>1650000</v>
       </c>
       <c r="E492" t="s">
@@ -18729,7 +18744,7 @@
       <c r="C493" t="s">
         <v>32</v>
       </c>
-      <c r="D493">
+      <c r="D493" s="2">
         <v>760000</v>
       </c>
       <c r="E493" t="s">
@@ -18758,7 +18773,7 @@
       <c r="C494" t="s">
         <v>684</v>
       </c>
-      <c r="D494">
+      <c r="D494" s="2">
         <v>2914000</v>
       </c>
       <c r="E494" t="s">
@@ -18787,7 +18802,7 @@
       <c r="C495" t="s">
         <v>528</v>
       </c>
-      <c r="D495">
+      <c r="D495" s="2">
         <v>1800000</v>
       </c>
       <c r="E495" t="s">
@@ -18816,7 +18831,7 @@
       <c r="C496" t="s">
         <v>32</v>
       </c>
-      <c r="D496">
+      <c r="D496" s="2">
         <v>550000</v>
       </c>
       <c r="E496" t="s">
@@ -18845,7 +18860,7 @@
       <c r="C497" t="s">
         <v>1176</v>
       </c>
-      <c r="D497">
+      <c r="D497" s="2">
         <v>860000</v>
       </c>
       <c r="E497" t="s">
@@ -18874,7 +18889,7 @@
       <c r="C498" t="s">
         <v>413</v>
       </c>
-      <c r="D498">
+      <c r="D498" s="2">
         <v>1225000</v>
       </c>
       <c r="E498" t="s">
@@ -18903,7 +18918,7 @@
       <c r="C499" t="s">
         <v>433</v>
       </c>
-      <c r="D499">
+      <c r="D499" s="2">
         <v>3125000</v>
       </c>
       <c r="E499" t="s">
@@ -18932,7 +18947,7 @@
       <c r="C500" t="s">
         <v>94</v>
       </c>
-      <c r="D500">
+      <c r="D500" s="2">
         <v>655000</v>
       </c>
       <c r="E500" t="s">
@@ -18961,7 +18976,7 @@
       <c r="C501" t="s">
         <v>32</v>
       </c>
-      <c r="D501">
+      <c r="D501" s="2">
         <v>567000</v>
       </c>
       <c r="E501" t="s">
@@ -18990,7 +19005,7 @@
       <c r="C502" t="s">
         <v>231</v>
       </c>
-      <c r="D502">
+      <c r="D502" s="2">
         <v>2900000</v>
       </c>
       <c r="E502" t="s">
@@ -19019,7 +19034,7 @@
       <c r="C503" t="s">
         <v>32</v>
       </c>
-      <c r="D503">
+      <c r="D503" s="2">
         <v>645000</v>
       </c>
       <c r="E503" t="s">
@@ -19048,7 +19063,7 @@
       <c r="C504" t="s">
         <v>34</v>
       </c>
-      <c r="D504">
+      <c r="D504" s="2">
         <v>2600000</v>
       </c>
       <c r="E504" t="s">
@@ -19077,7 +19092,7 @@
       <c r="C505" t="s">
         <v>956</v>
       </c>
-      <c r="D505">
+      <c r="D505" s="2">
         <v>1127000</v>
       </c>
       <c r="E505" t="s">
@@ -19106,7 +19121,7 @@
       <c r="C506" t="s">
         <v>653</v>
       </c>
-      <c r="D506">
+      <c r="D506" s="2">
         <v>1800000</v>
       </c>
       <c r="E506" t="s">
@@ -19135,7 +19150,7 @@
       <c r="C507" t="s">
         <v>456</v>
       </c>
-      <c r="D507">
+      <c r="D507" s="2">
         <v>959000</v>
       </c>
       <c r="E507" t="s">
@@ -19164,7 +19179,7 @@
       <c r="C508" t="s">
         <v>1176</v>
       </c>
-      <c r="D508">
+      <c r="D508" s="2">
         <v>850000</v>
       </c>
       <c r="E508" t="s">
@@ -19193,7 +19208,7 @@
       <c r="C509" t="s">
         <v>32</v>
       </c>
-      <c r="D509">
+      <c r="D509" s="2">
         <v>718000</v>
       </c>
       <c r="E509" t="s">
@@ -19222,7 +19237,7 @@
       <c r="C510" t="s">
         <v>413</v>
       </c>
-      <c r="D510">
+      <c r="D510" s="2">
         <v>1225000</v>
       </c>
       <c r="E510" t="s">
@@ -19251,7 +19266,7 @@
       <c r="C511" t="s">
         <v>94</v>
       </c>
-      <c r="D511">
+      <c r="D511" s="2">
         <v>826000</v>
       </c>
       <c r="E511" t="s">
@@ -19280,7 +19295,7 @@
       <c r="C512" t="s">
         <v>32</v>
       </c>
-      <c r="D512">
+      <c r="D512" s="2">
         <v>550000</v>
       </c>
       <c r="E512" t="s">
@@ -19309,7 +19324,7 @@
       <c r="C513" t="s">
         <v>94</v>
       </c>
-      <c r="D513">
+      <c r="D513" s="2">
         <v>780000</v>
       </c>
       <c r="E513" t="s">
@@ -19338,7 +19353,7 @@
       <c r="C514" t="s">
         <v>653</v>
       </c>
-      <c r="D514">
+      <c r="D514" s="2">
         <v>1014000</v>
       </c>
       <c r="E514" t="s">
@@ -19367,7 +19382,7 @@
       <c r="C515" t="s">
         <v>508</v>
       </c>
-      <c r="D515">
+      <c r="D515" s="2">
         <v>1250000</v>
       </c>
       <c r="E515" t="s">
@@ -19396,7 +19411,7 @@
       <c r="C516" t="s">
         <v>918</v>
       </c>
-      <c r="D516">
+      <c r="D516" s="2">
         <v>1500000</v>
       </c>
       <c r="E516" t="s">
@@ -19425,7 +19440,7 @@
       <c r="C517" t="s">
         <v>456</v>
       </c>
-      <c r="D517">
+      <c r="D517" s="2">
         <v>892000</v>
       </c>
       <c r="E517" t="s">
@@ -19454,7 +19469,7 @@
       <c r="C518" t="s">
         <v>920</v>
       </c>
-      <c r="D518">
+      <c r="D518" s="2">
         <v>3715000</v>
       </c>
       <c r="E518" t="s">
@@ -19483,7 +19498,7 @@
       <c r="C519" t="s">
         <v>32</v>
       </c>
-      <c r="D519">
+      <c r="D519" s="2">
         <v>610000</v>
       </c>
       <c r="E519" t="s">
@@ -19512,7 +19527,7 @@
       <c r="C520" t="s">
         <v>32</v>
       </c>
-      <c r="D520">
+      <c r="D520" s="2">
         <v>795000</v>
       </c>
       <c r="E520" t="s">
@@ -19541,7 +19556,7 @@
       <c r="C521" t="s">
         <v>1222</v>
       </c>
-      <c r="D521">
+      <c r="D521" s="2">
         <v>1100000</v>
       </c>
       <c r="E521" t="s">
@@ -19570,7 +19585,7 @@
       <c r="C522" t="s">
         <v>32</v>
       </c>
-      <c r="D522">
+      <c r="D522" s="2">
         <v>600000</v>
       </c>
       <c r="E522" t="s">
@@ -19599,7 +19614,7 @@
       <c r="C523" t="s">
         <v>32</v>
       </c>
-      <c r="D523">
+      <c r="D523" s="2">
         <v>780000</v>
       </c>
       <c r="E523" t="s">
@@ -19628,7 +19643,7 @@
       <c r="C524" t="s">
         <v>32</v>
       </c>
-      <c r="D524">
+      <c r="D524" s="2">
         <v>650000</v>
       </c>
       <c r="E524" t="s">
@@ -19657,7 +19672,7 @@
       <c r="C525" t="s">
         <v>32</v>
       </c>
-      <c r="D525">
+      <c r="D525" s="2">
         <v>580000</v>
       </c>
       <c r="E525" t="s">
@@ -19686,7 +19701,7 @@
       <c r="C526" t="s">
         <v>32</v>
       </c>
-      <c r="D526">
+      <c r="D526" s="2">
         <v>550000</v>
       </c>
       <c r="E526" t="s">
@@ -19715,7 +19730,7 @@
       <c r="C527" t="s">
         <v>94</v>
       </c>
-      <c r="D527">
+      <c r="D527" s="2">
         <v>720000</v>
       </c>
       <c r="E527" t="s">
@@ -19744,7 +19759,7 @@
       <c r="C528" t="s">
         <v>32</v>
       </c>
-      <c r="D528">
+      <c r="D528" s="2">
         <v>630000</v>
       </c>
       <c r="E528" t="s">
@@ -19773,7 +19788,7 @@
       <c r="C529" t="s">
         <v>32</v>
       </c>
-      <c r="D529">
+      <c r="D529" s="2">
         <v>550000</v>
       </c>
       <c r="E529" t="s">
@@ -19802,7 +19817,7 @@
       <c r="C530" t="s">
         <v>32</v>
       </c>
-      <c r="D530">
+      <c r="D530" s="2">
         <v>550000</v>
       </c>
       <c r="E530" t="s">
@@ -19831,7 +19846,7 @@
       <c r="C531" t="s">
         <v>1243</v>
       </c>
-      <c r="D531">
+      <c r="D531" s="2">
         <v>9800000</v>
       </c>
       <c r="E531" t="s">
@@ -19860,7 +19875,7 @@
       <c r="C532" t="s">
         <v>1246</v>
       </c>
-      <c r="D532">
+      <c r="D532" s="2">
         <v>3500000</v>
       </c>
       <c r="E532" t="s">
@@ -19889,7 +19904,7 @@
       <c r="C533" t="s">
         <v>168</v>
       </c>
-      <c r="D533">
+      <c r="D533" s="2">
         <v>2510000</v>
       </c>
       <c r="E533" t="s">
@@ -19918,7 +19933,7 @@
       <c r="C534" t="s">
         <v>1251</v>
       </c>
-      <c r="D534">
+      <c r="D534" s="2">
         <v>992000</v>
       </c>
       <c r="E534" t="s">
@@ -19947,7 +19962,7 @@
       <c r="C535" t="s">
         <v>594</v>
       </c>
-      <c r="D535">
+      <c r="D535" s="2">
         <v>9800000</v>
       </c>
       <c r="E535" t="s">
@@ -19976,7 +19991,7 @@
       <c r="C536" t="s">
         <v>505</v>
       </c>
-      <c r="D536">
+      <c r="D536" s="2">
         <v>5800000</v>
       </c>
       <c r="E536" t="s">
@@ -20005,7 +20020,7 @@
       <c r="C537" t="s">
         <v>32</v>
       </c>
-      <c r="D537">
+      <c r="D537" s="2">
         <v>1580000</v>
       </c>
       <c r="E537" t="s">
@@ -20034,7 +20049,7 @@
       <c r="C538" t="s">
         <v>18</v>
       </c>
-      <c r="D538">
+      <c r="D538" s="2">
         <v>18200000</v>
       </c>
       <c r="E538" t="s">
@@ -20063,7 +20078,7 @@
       <c r="C539" t="s">
         <v>72</v>
       </c>
-      <c r="D539">
+      <c r="D539" s="2">
         <v>680000</v>
       </c>
       <c r="E539" t="s">
@@ -20092,7 +20107,7 @@
       <c r="C540" t="s">
         <v>123</v>
       </c>
-      <c r="D540">
+      <c r="D540" s="2">
         <v>5850000</v>
       </c>
       <c r="E540" t="s">
@@ -20121,7 +20136,7 @@
       <c r="C541" t="s">
         <v>55</v>
       </c>
-      <c r="D541">
+      <c r="D541" s="2">
         <v>660000</v>
       </c>
       <c r="E541" t="s">
@@ -20150,7 +20165,7 @@
       <c r="C542" t="s">
         <v>1120</v>
       </c>
-      <c r="D542">
+      <c r="D542" s="2">
         <v>9300000</v>
       </c>
       <c r="E542" t="s">
@@ -20179,7 +20194,7 @@
       <c r="C543" t="s">
         <v>219</v>
       </c>
-      <c r="D543">
+      <c r="D543" s="2">
         <v>745000</v>
       </c>
       <c r="E543" t="s">
@@ -20208,7 +20223,7 @@
       <c r="C544" t="s">
         <v>298</v>
       </c>
-      <c r="D544">
+      <c r="D544" s="2">
         <v>1220000</v>
       </c>
       <c r="E544" t="s">
@@ -20237,7 +20252,7 @@
       <c r="C545" t="s">
         <v>32</v>
       </c>
-      <c r="D545">
+      <c r="D545" s="2">
         <v>719000</v>
       </c>
       <c r="E545" t="s">
@@ -20266,7 +20281,7 @@
       <c r="C546" t="s">
         <v>32</v>
       </c>
-      <c r="D546">
+      <c r="D546" s="2">
         <v>1245000</v>
       </c>
       <c r="E546" t="s">
@@ -20295,7 +20310,7 @@
       <c r="C547" t="s">
         <v>32</v>
       </c>
-      <c r="D547">
+      <c r="D547" s="2">
         <v>1120000</v>
       </c>
       <c r="E547" t="s">
@@ -20324,7 +20339,7 @@
       <c r="C548" t="s">
         <v>32</v>
       </c>
-      <c r="D548">
+      <c r="D548" s="2">
         <v>740000</v>
       </c>
       <c r="E548" t="s">
@@ -20353,7 +20368,7 @@
       <c r="C549" t="s">
         <v>26</v>
       </c>
-      <c r="D549">
+      <c r="D549" s="2">
         <v>8400000</v>
       </c>
       <c r="E549" t="s">
@@ -20382,7 +20397,7 @@
       <c r="C550" t="s">
         <v>79</v>
       </c>
-      <c r="D550">
+      <c r="D550" s="2">
         <v>8600000</v>
       </c>
       <c r="E550" t="s">
@@ -20411,7 +20426,7 @@
       <c r="C551" t="s">
         <v>1279</v>
       </c>
-      <c r="D551">
+      <c r="D551" s="2">
         <v>7000000</v>
       </c>
       <c r="E551" t="s">
@@ -20440,7 +20455,7 @@
       <c r="C552" t="s">
         <v>32</v>
       </c>
-      <c r="D552">
+      <c r="D552" s="2">
         <v>897000</v>
       </c>
       <c r="E552" t="s">
@@ -20469,7 +20484,7 @@
       <c r="C553" t="s">
         <v>113</v>
       </c>
-      <c r="D553">
+      <c r="D553" s="2">
         <v>8500000</v>
       </c>
       <c r="E553" t="s">
@@ -20498,7 +20513,7 @@
       <c r="C554" t="s">
         <v>32</v>
       </c>
-      <c r="D554">
+      <c r="D554" s="2">
         <v>1095000</v>
       </c>
       <c r="E554" t="s">
@@ -20527,7 +20542,7 @@
       <c r="C555" t="s">
         <v>219</v>
       </c>
-      <c r="D555">
+      <c r="D555" s="2">
         <v>820000</v>
       </c>
       <c r="E555" t="s">
@@ -20556,7 +20571,7 @@
       <c r="C556" t="s">
         <v>668</v>
       </c>
-      <c r="D556">
+      <c r="D556" s="2">
         <v>3380000</v>
       </c>
       <c r="E556" t="s">
@@ -20585,7 +20600,7 @@
       <c r="C557" t="s">
         <v>168</v>
       </c>
-      <c r="D557">
+      <c r="D557" s="2">
         <v>2000000</v>
       </c>
       <c r="E557" t="s">
@@ -20614,7 +20629,7 @@
       <c r="C558" t="s">
         <v>32</v>
       </c>
-      <c r="D558">
+      <c r="D558" s="2">
         <v>910000</v>
       </c>
       <c r="E558" t="s">
@@ -20643,7 +20658,7 @@
       <c r="C559" t="s">
         <v>84</v>
       </c>
-      <c r="D559">
+      <c r="D559" s="2">
         <v>3150000</v>
       </c>
       <c r="E559" t="s">
@@ -20672,7 +20687,7 @@
       <c r="C560" t="s">
         <v>32</v>
       </c>
-      <c r="D560">
+      <c r="D560" s="2">
         <v>540000</v>
       </c>
       <c r="E560" t="s">
@@ -20701,7 +20716,7 @@
       <c r="C561" t="s">
         <v>604</v>
       </c>
-      <c r="D561">
+      <c r="D561" s="2">
         <v>1480000</v>
       </c>
       <c r="E561" t="s">
@@ -20730,7 +20745,7 @@
       <c r="C562" t="s">
         <v>32</v>
       </c>
-      <c r="D562">
+      <c r="D562" s="2">
         <v>1260000</v>
       </c>
       <c r="E562" t="s">
@@ -20759,7 +20774,7 @@
       <c r="C563" t="s">
         <v>32</v>
       </c>
-      <c r="D563">
+      <c r="D563" s="2">
         <v>1450000</v>
       </c>
       <c r="E563" t="s">
@@ -20788,7 +20803,7 @@
       <c r="C564" t="s">
         <v>449</v>
       </c>
-      <c r="D564">
+      <c r="D564" s="2">
         <v>1701000</v>
       </c>
       <c r="E564" t="s">
@@ -20817,7 +20832,7 @@
       <c r="C565" t="s">
         <v>298</v>
       </c>
-      <c r="D565">
+      <c r="D565" s="2">
         <v>1120000</v>
       </c>
       <c r="E565" t="s">
@@ -20846,7 +20861,7 @@
       <c r="C566" t="s">
         <v>648</v>
       </c>
-      <c r="D566">
+      <c r="D566" s="2">
         <v>5600000</v>
       </c>
       <c r="E566" t="s">
@@ -20875,7 +20890,7 @@
       <c r="C567" t="s">
         <v>32</v>
       </c>
-      <c r="D567">
+      <c r="D567" s="2">
         <v>1520000</v>
       </c>
       <c r="E567" t="s">
@@ -20895,6 +20910,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:I1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>

--- a/excels/reporte_personas_cargos_chile.xlsx
+++ b/excels/reporte_personas_cargos_chile.xlsx
@@ -3950,9 +3950,6 @@
     <t>sueldo maximo</t>
   </si>
   <si>
-    <t>Niveles</t>
-  </si>
-  <si>
     <t>Sub_niveles</t>
   </si>
   <si>
@@ -4017,6 +4014,9 @@
   </si>
   <si>
     <t xml:space="preserve">sin nadie a cargo </t>
+  </si>
+  <si>
+    <t>Niveles_gabriel</t>
   </si>
 </sst>
 </file>
@@ -4038,6 +4038,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -4460,8 +4461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I567"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20919,8 +20920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F166"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="A99" sqref="A99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20945,13 +20946,13 @@
         <v>1307</v>
       </c>
       <c r="D1" s="7" t="s">
+        <v>1330</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>1308</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="8" t="s">
         <v>1309</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>1310</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -20999,7 +21000,7 @@
       </c>
       <c r="E4" s="9"/>
       <c r="F4" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -21062,7 +21063,7 @@
       </c>
       <c r="E8" s="9"/>
       <c r="F8" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -21198,10 +21199,10 @@
         <v>5</v>
       </c>
       <c r="E17" s="9" t="s">
+        <v>1313</v>
+      </c>
+      <c r="F17" t="s">
         <v>1314</v>
-      </c>
-      <c r="F17" t="s">
-        <v>1315</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -21309,7 +21310,7 @@
       </c>
       <c r="E24" s="9"/>
       <c r="F24" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -21327,7 +21328,7 @@
       </c>
       <c r="E25" s="9"/>
       <c r="F25" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -21450,7 +21451,7 @@
       </c>
       <c r="E33" s="9"/>
       <c r="F33" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -21482,7 +21483,7 @@
         <v>1</v>
       </c>
       <c r="F35" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -21529,7 +21530,7 @@
         <v>1</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -21651,10 +21652,10 @@
         <v>8</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="F46" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -21716,10 +21717,10 @@
         <v>5</v>
       </c>
       <c r="E50" s="9" t="s">
+        <v>1315</v>
+      </c>
+      <c r="F50" t="s">
         <v>1316</v>
-      </c>
-      <c r="F50" t="s">
-        <v>1317</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -21901,7 +21902,7 @@
         <v>6</v>
       </c>
       <c r="E62" s="11" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -21919,7 +21920,7 @@
       </c>
       <c r="E63" s="9"/>
       <c r="F63" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -21952,7 +21953,7 @@
       </c>
       <c r="E65" s="9"/>
       <c r="F65" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -22045,7 +22046,7 @@
       </c>
       <c r="E71" s="9"/>
       <c r="F71" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -22063,7 +22064,7 @@
       </c>
       <c r="E72" s="9"/>
       <c r="F72" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -22081,7 +22082,7 @@
       </c>
       <c r="E73" s="9"/>
       <c r="F73" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -22156,7 +22157,7 @@
         <v>7</v>
       </c>
       <c r="E78" s="9" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -22354,7 +22355,7 @@
       </c>
       <c r="E91" s="9"/>
       <c r="F91" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -22582,7 +22583,7 @@
       </c>
       <c r="E106" s="9"/>
       <c r="F106" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
@@ -22735,7 +22736,7 @@
       </c>
       <c r="E116" s="9"/>
       <c r="F116" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
@@ -22753,7 +22754,7 @@
       </c>
       <c r="E117" s="9"/>
       <c r="F117" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
@@ -22846,7 +22847,7 @@
       </c>
       <c r="E123" s="9"/>
       <c r="F123" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
@@ -22954,7 +22955,7 @@
       </c>
       <c r="E130" s="9"/>
       <c r="F130" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
@@ -23016,10 +23017,10 @@
         <v>7</v>
       </c>
       <c r="E134" s="11" t="s">
+        <v>1325</v>
+      </c>
+      <c r="F134" t="s">
         <v>1326</v>
-      </c>
-      <c r="F134" t="s">
-        <v>1327</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
@@ -23126,7 +23127,7 @@
         <v>1</v>
       </c>
       <c r="E141" s="12" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="F141" s="4"/>
     </row>
@@ -23311,7 +23312,7 @@
       </c>
       <c r="E153" s="13"/>
       <c r="F153" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
@@ -23449,7 +23450,7 @@
       </c>
       <c r="E162" s="13"/>
       <c r="F162" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
@@ -23513,11 +23514,7 @@
       <c r="E166" s="13"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F166">
-    <sortState ref="A44:F166">
-      <sortCondition ref="A1:A166"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:F166"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>